--- a/UNICEF_framework_V09.xlsx
+++ b/UNICEF_framework_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/src/unicef-assessment-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EE77D-9810-644F-8428-D41210573894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D62530-FCBF-1940-B177-AAAD1F6BBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26580" firstSheet="8" activeTab="21" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26580" firstSheet="8" activeTab="19" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use the tool" sheetId="22" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="851">
   <si>
     <t>child labor</t>
   </si>
@@ -1829,14 +1829,6 @@
     <t>Part 4. What are the geographic risks to child rights in your business and your supply chain?</t>
   </si>
   <si>
-    <t>Is it likely that the business or supply chain produces ANY of the following products:
-Products intended for children or young adults as consumers
-Products that are prohibited for sale to children</t>
-  </si>
-  <si>
-    <t>Is it likely that the products or services produced by the business or supply chain, if misused by children or third parties, could be harmful to children?</t>
-  </si>
-  <si>
     <t>Is it likely that the business or supply chain engages ANY of the following workers:
 A significant number of low to semi-skilled female workers  
 A limited number of female workers at any skill level</t>
@@ -1873,12 +1865,6 @@
 A lack of transparency over use of royalties or tax contributions from business
 Inadequate provision of basic services such as clean water, education, and health
 </t>
-  </si>
-  <si>
-    <t>Is it likely that the business or supply chain engages in ANY of the following:
-Consumer-facing activities online 
-Production of digital technology 
-Hosting or production of social media platforms</t>
   </si>
   <si>
     <t xml:space="preserve">Issue
@@ -1991,9 +1977,6 @@
 Parents and caregivers who receive a very low wage, or who live in remote, poor areas. where children have limited access to school (school may be too far away or too costly), are more likely to rely on child labor to supplement household income when necessary.</t>
   </si>
   <si>
-    <t>Key performance indicators are a tool used to monitor the effectiveness of measures to prevent or mitigate impacts on children. Sometimes they are also tied to financial incentives for personnel responsible for these issues. For example, you could track the roll-out of training on children's rights across key functions in the business, or  details in programmes to manage specific issues, such as child labor, or product safety.</t>
-  </si>
-  <si>
     <t>Key performance indicators are data that is counted to measure the effectiveness of measures to prevent or mitigate human rights impacts. Sometimes they are also tied to financial incentives for personnel responsible for these issues. When compared over time, KPIs can indicate where issues are improving or not. For example, a KPI could relate to the proportion of total grievance complaints resolved within a target timeline and to the satisfaction of the person making the complaint.</t>
   </si>
   <si>
@@ -2009,16 +1992,7 @@
     <t>The business should have a set of procedures to monitor human rights risk in its business relationships, drawing on initial screening assessments of supplier risk. Depending on the risk profile of the supplier, tools such as SAQs, audits and worker surveys can be used to monitor risk. These methods will be effective only if grounded in long-term contracts with trusted suppliers, regular supplier engagement, and a culture of continuous improvement.</t>
   </si>
   <si>
-    <t>The business should conduct a regular assessment of potential human rights risks associated with its business operations (considering its sites, facilities, products and services, and labour supply chain), as well as its supply chain. This process may focus on higher priority areas of the business first (e.g. where the potential risks to people are greatest). The assessment should result in an action plan with measures to mitigate the risks identified, and ongoing monitoring of these measures. Where the assessment identifies actual impacts, then the business will need to initiate a remediation response.</t>
-  </si>
-  <si>
     <t>If children's rights are integrated into regular human rights assessments this means that they will be automically considered in all efforts to assess and mitigate risk, or remediate actual impacts. This contributes to a more effective and harmonised due diligence approach. Once you identify areas where children's rights are more at risk, it may then be useful to conduct a more in-depth assessment focusing just on children's rights.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depending on the risk profile of the business, relevant functions require training on human rights risks so that they understand how to prevent adverse impacts. For example, training will usually apply to management, supply chain, procurement, human resources, and operations, but it may also be relevant for other functions, depending on the business, for example, product designers, or security providers. Ideally, the business should conduct awareness raising on human rights with all management, staff and workers including how to report concerns. </t>
-  </si>
-  <si>
-    <t>Integrating child rights into human rights training is the most effective way to ensure that these issues are regularly communicated to key functions across the business, such as management, supply chain, procurement, human resources and operations. Depending on the business activity, there may be particular functions who have a significant ability to impact child rights, such as product designers, marketing personnel, grievance mechanism personnel, or security providers. In such cases, it may be useful to provide specific training on how to protect children's rights in the course of their business activities.</t>
   </si>
   <si>
     <t>To embed the commitment to respect human rights, it is essential to appoint key functions within senior management and the business who are responsible for implementing the human rights programme. That includes, for example, assessment, mitigation, monitoring and remediation, and reporting on human rights risk, as well as training and awareness raising on child rights, and stakeholder consultation of children or their representatives.</t>
@@ -2231,9 +2205,6 @@
     <t xml:space="preserve">Young workers are are extremely vulnerable to violence, exploitation and abuse because of their physical and emotional immaturity, inexperience, and powerlessness in the working environment - a young worker is above the legal working age and under 18 years old. In some cases, compulsory internship programmes are misused to compensate for labor shortages. Having a procedure to establish and supervise working conditions for young workers - and engaging with suppliers on this issue - can prevent exploitation of young workers, and especially migrant young workers, in forced overtime, payment of very low wages, and hazardous work.  </t>
   </si>
   <si>
-    <t>Establishing family friendly workplaces enables parents and caregivers to meet their work and family commitments, and provide material and emotional support to children at a crucial stage of development. All families, without discrimination, should receive equal support to care for their children. A commitment to decent working conditions that are family friendly policies should include at least: paid maternity, paternity and parental leave and sick leave, breastfeeding spaces and breaks for mothers to breastfeed exclusively for 6 months, access to affordable, quality childcare, payment of a living wage and statutory benefits. Implementing these policies - and engaging with suppliers on these issues - enables parents and caregivers to protect their children's health and wellbeing, as well as boosting productivity and women's empowerment.</t>
-  </si>
-  <si>
     <t>Achieving an enabling environment for family friendly policies requires collaboration between government, business and civil society, for example, creating the infrastructure and culture to enable mothers to exclusively breastfeed for the first 6 months, co-funding paid parental leave and creating access to affordable child care. Business can support children's rights by participating in multi-stakeholder initiatives to promote a family-friendly policies in the workplace and wider community.</t>
   </si>
   <si>
@@ -2249,15 +2220,6 @@
     <t>Does the business collaborate in programmes (community, industry, national, international) to create an enabling environment for family friendly workplaces?</t>
   </si>
   <si>
-    <t>Does the business collaborate in programmes (community, industry, national, international) to promote children's rights, and positive, healthy behaviour, in marketing and advertising, including voluntary marketing codes and standards?</t>
-  </si>
-  <si>
-    <t>Growing up online offers limitless opportunities for children's access to education, social communication and participation, but it also creates risks for children - for example, sexual exploitation and abuse, cyberbullying, privacy breaches as a result of data collection for marketing purposes, access to age inappropriate content, and excessive screen time affecting a child's healthy development. Adopting a Safety by Design approach is a key method of protecting children because it requires business to consider child users of all ages, from product design through to deployment.</t>
-  </si>
-  <si>
-    <t>Does the business collaborate in programmes (community, industry, national, international) to prevent the misuse of its products, services or resources for the sexual exploitation and abuse of children?</t>
-  </si>
-  <si>
     <t>https://www.unicef.org/protection/violence-against-children-online</t>
   </si>
   <si>
@@ -2315,33 +2277,9 @@
     <t>Does the business have a procedure to provide family friendly working conditions, and does it promote this practice through engagement with suppliers?</t>
   </si>
   <si>
-    <t>Children lack the critical awareness to evaluate advertising and marketing, and exposure to inappropriate communications can have a negative effect on their behavior and self-esteem. For example, children may be more susceptible to pressure to conform to group standards (e.g. consuming cigarettes and alcohol, or using skin whitening creams), or they may believe advertising that normalises violence, sexualised behavior or unrealistic body images, or they may be unaware of the harmful effects of eating food or drink that is high in in sugar, salt and fat content. Children may also not fully understand the implications of data privacy and the use of their personal data for behavioral advertising. This is why having a policy and procedure in place with standards to protect children's rights is essential for responsible marketing or advertising to children.</t>
-  </si>
-  <si>
-    <t>Joining voluntary initiatives to establish marketing codes and standards which include protections for children, and encourage positive and healthy behaviours, is an effective way to apply best practice, and to promote it across an industry. Given the role that marketing and advertising plays in business competition, promoting common standards to which all companies adhere, is essential to protect children's rights. The International Code of Marketing of Breast-Milk Substitutes is an example of a code that promotes children's nutrition through the exclusive breastfeeding of babies in the first 6 months, and the stipulation of no marketing or advertising of breast-milk substitutes, bottles and teats to the public, or through health facilities.</t>
-  </si>
-  <si>
-    <t>Does the business have a procedure to protect children's safety in product design, labeling and packaging, and research and testing if relevant, and does it promote this standard with suppliers.</t>
-  </si>
-  <si>
-    <t>Does the business have a procedure to ensure all advertising and marketing to children promotes non-discrimination, positive, healthy behaviour, and avoids behavioural advertising, and does it promote this standard with suppliers?</t>
-  </si>
-  <si>
-    <t>Products intended for children, such as toys, clothes, and helmets, can harm children if they use them inappropriately, or if the safety design or labeling and packaging of that product does not take specific account of children. Having a policy and standard in place on child safety standards - and engaging with suppliers on this issue - will ensure that the business integrates child safety at all stages of product development. Children can also be put at risk by product research and testing which may cause long-term physical harm. Such research and testing should be conducted only if necessary and specific to children's health, and if it cannot be carried on out adults - if it does proceed, it must be conducted in line with national and international regulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a risk that business products, services or resources can be misused, to facilitate or encourage the sexual exploitation and abuse of children. Sectors affected by this include tourism, where hotels and transport infrastructure are routinely misused by perpetrators to sexually exploit children; and information technology, which is misused for child sexual exploitation, cyberbullying, and access to inappropriate and dangerous content. Monitoring and preventing the misuse of products, services and resources requires collaboration, across industries and with other stakeholders like government and civil society. </t>
-  </si>
-  <si>
-    <t>Does the business apply a safety by design approach to embed child user safety in the design, development and deployment of online and digital products and services, and does it promote this standard with suppliers?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tackling online child sexual exploitation and abuse requires collaboration between governments and law enforcement, civil society, international organisations and the private sector, through organisations such as WeProtect Global Alliance. For example, data privacy, prohibition/removal of child sex abuse material, control of access to age-appropriate content, and access to reporting hotlines.Technology companies have a key role to play in such initiatives, designing technology that is safe for children, as well as developing tools to protect them from abuse and exploitation. </t>
   </si>
   <si>
-    <t>Does the business implement or collaborate in programmes (community, industry, national, international) to protect children in the use of digital products and services online business activities or use of its products online?</t>
-  </si>
-  <si>
     <t>Does the business have a procedure to assess impacts on children and on pregnant women in regular environmental impact assessments of its operations, and does it promote this practice with suppliers?</t>
   </si>
   <si>
@@ -2636,18 +2574,12 @@
     <t>Children and Digital Marketing. Industry Toolkit.</t>
   </si>
   <si>
-    <t>https://sites.unicef.org/csr/css/industry-toolkit-children-digital-marketing.pdf</t>
-  </si>
-  <si>
     <t>https://sites.unicef.org/csr/files/FINAL_Investor_Guidance_UNICEF_Sustainalytics.pdf</t>
   </si>
   <si>
     <t>Investor Guidance on Integrating Children's Rights into Investment Decision Making. UNICEF and Sustainalytics.</t>
   </si>
   <si>
-    <t>https://www.unicef.org.uk/babyfriendly/baby-friendly-resources/international-code-marketing-breastmilk-substitutes-resources/guide-to-working-within-the-code/</t>
-  </si>
-  <si>
     <t>Working within the International Code of Marketing of Breastmilk Substitutes: A guide for health workers. UNICEF.</t>
   </si>
   <si>
@@ -2769,6 +2701,85 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>Lower to semi-skilled female workers are more likely to be in low-paid work, or on temporary contracts, and are less likely to benefit from Maternity protections and family friendly policies. 
+Where few female workers of any skill level are employed, there is a higher risk that family friendly policies will not be applied.</t>
+  </si>
+  <si>
+    <t>Does the business have a procedure to ensure all advertising and Marketing to children promotes non-discrimination, positive, healthy behaviour, and avoids behavioural advertising, and does it promote this standard with suppliers?</t>
+  </si>
+  <si>
+    <t>Does the business collaborate in programmes (community, industry, national, international) to promote children's rights, and positive, healthy behaviour, in Marketing and advertising, including voluntary Marketing codes and standards?</t>
+  </si>
+  <si>
+    <t>Children lack the critical awareness to evaluate advertising and Marketing, and exposure to inappropriate communications can have a negative effect on their behavior and self-esteem. For example, children may be more susceptible to pressure to conform to group standards (e.g. consuming cigarettes and alcohol, or using skin whitening creams), or they may believe advertising that normalises violence, sexualised behavior or unrealistic body images, or they may be unaware of the harmful effects of eating food or drink that is high in in sugar, salt and fat content. Children may also not fully understand the implications of data privacy and the use of their personal data for behavioral advertising. This is why having a policy and procedure in place with standards to protect children's rights is essential for responsible Marketing or advertising to children.</t>
+  </si>
+  <si>
+    <t>Joining voluntary initiatives to establish Marketing codes and standards which include protections for children, and encourage positive and healthy behaviours, is an effective way to apply best practice, and to promote it across an industry. Given the role that Marketing and advertising plays in business competition, promoting common standards to which all companies adhere, is essential to protect children's rights. The International Code of Marketing of Breast-Milk Substitutes is an example of a code that promotes children's nutrition through the exclusive breastfeeding of babies in the first 6 months, and the stipulation of no Marketing or advertising of breast-milk substitutes, bottles and teats to the public, or through health facilities.</t>
+  </si>
+  <si>
+    <t>https://sites.unicef.org/csr/css/industry-toolkit-children-digital-Marketing.pdf</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org.uk/babyfriendly/baby-friendly-resources/international-code-Marketing-breastmilk-substitutes-resources/guide-to-working-within-the-code/</t>
+  </si>
+  <si>
+    <t>If companies are producing Products for children, or Products that could harm children, or Products that are banned for children, they need to adopt responsible Marketing and advertising strategies to protect children.
+For example, companies should refrain from Marketing and advertising that encourages children to consume or use Products that are harmful to their health, or manipulates or negatively influences their behavior or self-esteem, or normalises violence, sexualised behavior or unrealistic body image ideals.</t>
+  </si>
+  <si>
+    <t>When companies produce Products intended for children, such as toys, or food, or social media platforms, there is a risk that without adequate security by design and other forms of protection and regulation, the Products may be used inappropriately or may be inherently unsuitable for children. Company Products and services can also be misused to harm children, for example, the misuse of tourism facilities or the internet for child sexual exploitation. Product research and testing for such Products and services may also expose children to negative physical and mental impacts.</t>
+  </si>
+  <si>
+    <t>Is it likely that the business or supply chain produces ANY of the following Products:
+Products intended for children or young adults as consumers
+Products that are prohibited for sale to children</t>
+  </si>
+  <si>
+    <t>Is it likely that the Products or services produced by the business or supply chain, if misused by children or third parties, could be harmful to children?</t>
+  </si>
+  <si>
+    <t>Is it likely that the business or supply chain engages in ANY of the following:
+Consumer-facing activities online 
+Production of digital technology 
+Hosting or Production of social media platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the risk profile of the business, relevant functions require training on human rights risks so that they understand how to prevent adverse impacts. For example, training will usually apply to management, supply chain, procurement, human resources, and operations, but it may also be relevant for other functions, depending on the business, for example, Product designers, or security providers. Ideally, the business should conduct awareness raising on human rights with all management, staff and workers including how to report concerns. </t>
+  </si>
+  <si>
+    <t>Integrating child rights into human rights training is the most effective way to ensure that these issues are regularly communicated to key functions across the business, such as management, supply chain, procurement, human resources and operations. Depending on the business activity, there may be particular functions who have a significant ability to impact child rights, such as Product designers, Marketing personnel, grievance mechanism personnel, or security providers. In such cases, it may be useful to provide specific training on how to protect children's rights in the course of their business activities.</t>
+  </si>
+  <si>
+    <t>The business should conduct a regular assessment of potential human rights risks associated with its business operations (considering its sites, facilities, Products and services, and labour supply chain), as well as its supply chain. This process may focus on higher priority areas of the business first (e.g. where the potential risks to people are greatest). The assessment should result in an action plan with measures to mitigate the risks identified, and ongoing monitoring of these measures. Where the assessment identifies actual impacts, then the business will need to initiate a remediation response.</t>
+  </si>
+  <si>
+    <t>Key performance indicators are a tool used to monitor the effectiveness of measures to prevent or mitigate impacts on children. Sometimes they are also tied to financial incentives for personnel responsible for these issues. For example, you could track the roll-out of training on children's rights across key functions in the business, or  details in programmes to manage specific issues, such as child labor, or Product safety.</t>
+  </si>
+  <si>
+    <t>Does the business have a procedure to protect children's safety in Product design, labeling and packaging, and research and testing if relevant, and does it promote this standard with suppliers.</t>
+  </si>
+  <si>
+    <t>Does the business collaborate in programmes (community, industry, national, international) to prevent the misuse of its Products, services or resources for the sexual exploitation and abuse of children?</t>
+  </si>
+  <si>
+    <t>Does the business apply a safety by design approach to embed child user safety in the design, development and deployment of online and digital Products and services, and does it promote this standard with suppliers?</t>
+  </si>
+  <si>
+    <t>Does the business implement or collaborate in programmes (community, industry, national, international) to protect children in the use of digital Products and services online business activities or use of its Products online?</t>
+  </si>
+  <si>
+    <t>Establishing family friendly workplaces enables parents and caregivers to meet their work and family commitments, and provide material and emotional support to children at a crucial stage of development. All families, without discrimination, should receive equal support to care for their children. A commitment to decent working conditions that are family friendly policies should include at least: paid Maternity, paternity and parental leave and sick leave, breastfeeding spaces and breaks for mothers to breastfeed exclusively for 6 months, access to affordable, quality childcare, payment of a living wage and statutory benefits. Implementing these policies - and engaging with suppliers on these issues - enables parents and caregivers to protect their children's health and wellbeing, as well as boosting Productivity and women's empowerment.</t>
+  </si>
+  <si>
+    <t>Products intended for children, such as toys, clothes, and helmets, can harm children if they use them inappropriately, or if the safety design or labeling and packaging of that Product does not take specific account of children. Having a policy and standard in place on child safety standards - and engaging with suppliers on this issue - will ensure that the business integrates child safety at all stages of Product development. Children can also be put at risk by Product research and testing which may cause long-term physical harm. Such research and testing should be conducted only if necessary and specific to children's health, and if it cannot be carried on out adults - if it does proceed, it must be conducted in line with national and international regulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a risk that business Products, services or resources can be misused, to facilitate or encourage the sexual exploitation and abuse of children. Sectors affected by this include tourism, where hotels and transport infrastructure are routinely misused by perpetrators to sexually exploit children; and information technology, which is misused for child sexual exploitation, cyberbullying, and access to inappropriate and dangerous content. Monitoring and preventing the misuse of Products, services and resources requires collaboration, across industries and with other stakeholders like government and civil society. </t>
+  </si>
+  <si>
+    <t>Growing up online offers limitless opportunities for children's access to education, social communication and participation, but it also creates risks for children - for example, sexual exploitation and abuse, cyberbullying, privacy breaches as a result of data collection for Marketing purposes, access to age inappropriate content, and excessive screen time affecting a child's healthy development. Adopting a Safety by Design approach is a key method of protecting children because it requires business to consider child users of all ages, from Product design through to deployment.</t>
   </si>
 </sst>
 </file>
@@ -5760,7 +5771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16F2E1F1-6C73-254A-92ED-32918810130D}" type="CELLRANGE">
+                    <a:fld id="{24369C9F-C4D0-9E4F-AC46-C588BDF2379D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5950,7 +5961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50A7122E-762D-7848-A7B1-83BE8430C63E}" type="CELLRANGE">
+                    <a:fld id="{F0050294-C867-BA49-BB8F-6D75083791D4}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17514,52 +17525,52 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
@@ -19206,7 +19217,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="D1" s="417"/>
     </row>
@@ -19234,7 +19245,7 @@
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="437" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B4" s="437"/>
       <c r="C4" s="437"/>
@@ -19283,7 +19294,7 @@
         <v>215</v>
       </c>
       <c r="C7" s="272" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="D7" s="273" t="s">
         <v>189</v>
@@ -19292,16 +19303,16 @@
         <v>22</v>
       </c>
       <c r="F7" s="156" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="G7" s="207" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H7" s="156" t="s">
         <v>521</v>
       </c>
       <c r="I7" s="352" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="J7" s="235" t="s">
         <v>272</v>
@@ -19325,7 +19336,7 @@
         <v>190</v>
       </c>
       <c r="E8" s="160" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F8" s="199" t="s">
         <v>27</v>
@@ -19335,7 +19346,7 @@
       </c>
       <c r="H8" s="160"/>
       <c r="I8" s="353" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>34</v>
@@ -19355,7 +19366,7 @@
         <v>191</v>
       </c>
       <c r="E9" s="164" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F9" s="199" t="s">
         <v>27</v>
@@ -19405,7 +19416,7 @@
         <v>190</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F11" s="199" t="s">
         <v>27</v>
@@ -19415,7 +19426,7 @@
       </c>
       <c r="H11" s="160"/>
       <c r="I11" s="353" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>34</v>
@@ -19435,7 +19446,7 @@
         <v>191</v>
       </c>
       <c r="E12" s="164" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F12" s="199" t="s">
         <v>27</v>
@@ -19479,13 +19490,13 @@
         <v>232</v>
       </c>
       <c r="C14" s="159" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D14" s="159" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="160" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F14" s="199" t="s">
         <v>27</v>
@@ -19495,7 +19506,7 @@
       </c>
       <c r="H14" s="166"/>
       <c r="I14" s="354" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="J14" s="13"/>
     </row>
@@ -19507,7 +19518,7 @@
         <v>233</v>
       </c>
       <c r="C15" s="159" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D15" s="159" t="s">
         <v>191</v>
@@ -19523,7 +19534,7 @@
       </c>
       <c r="H15" s="166"/>
       <c r="I15" s="354" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="J15" s="13"/>
     </row>
@@ -19531,7 +19542,7 @@
       <c r="A16" s="274"/>
       <c r="B16" s="275"/>
       <c r="C16" s="277" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D16" s="277"/>
       <c r="E16" s="276" t="s">
@@ -19557,7 +19568,7 @@
         <v>234</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D17" s="159" t="s">
         <v>190</v>
@@ -19573,7 +19584,7 @@
       </c>
       <c r="H17" s="166"/>
       <c r="I17" s="354" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J17" s="13"/>
     </row>
@@ -19585,7 +19596,7 @@
         <v>235</v>
       </c>
       <c r="C18" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D18" s="159" t="s">
         <v>191</v>
@@ -19601,7 +19612,7 @@
       </c>
       <c r="H18" s="163"/>
       <c r="I18" s="354" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J18" s="13"/>
     </row>
@@ -19609,7 +19620,7 @@
       <c r="A19" s="274"/>
       <c r="B19" s="275"/>
       <c r="C19" s="277" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D19" s="277"/>
       <c r="E19" s="276" t="s">
@@ -19651,7 +19662,7 @@
       </c>
       <c r="H20" s="163"/>
       <c r="I20" s="354" t="s">
-        <v>601</v>
+        <v>839</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -19679,7 +19690,7 @@
       </c>
       <c r="H21" s="163"/>
       <c r="I21" s="354" t="s">
-        <v>602</v>
+        <v>840</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -19729,7 +19740,7 @@
       </c>
       <c r="H23" s="163"/>
       <c r="I23" s="354" t="s">
-        <v>599</v>
+        <v>841</v>
       </c>
       <c r="J23" s="13"/>
     </row>
@@ -19757,13 +19768,13 @@
       </c>
       <c r="H24" s="163"/>
       <c r="I24" s="354" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="280" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -19812,7 +19823,7 @@
       </c>
       <c r="H26" s="163"/>
       <c r="I26" s="354" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="J26" s="13"/>
     </row>
@@ -19840,13 +19851,13 @@
       </c>
       <c r="H27" s="163"/>
       <c r="I27" s="354" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K27" s="391" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="280" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -19879,7 +19890,7 @@
         <v>242</v>
       </c>
       <c r="C29" s="159" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D29" s="159" t="s">
         <v>190</v>
@@ -19895,7 +19906,7 @@
       </c>
       <c r="H29" s="166"/>
       <c r="I29" s="354" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J29" s="13"/>
     </row>
@@ -19907,13 +19918,13 @@
         <v>243</v>
       </c>
       <c r="C30" s="159" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D30" s="159" t="s">
         <v>191</v>
       </c>
       <c r="E30" s="167" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F30" s="199" t="s">
         <v>27</v>
@@ -19923,7 +19934,7 @@
       </c>
       <c r="H30" s="166"/>
       <c r="I30" s="354" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J30" s="13"/>
     </row>
@@ -19931,7 +19942,7 @@
       <c r="A31" s="274"/>
       <c r="B31" s="275"/>
       <c r="C31" s="277" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D31" s="277"/>
       <c r="E31" s="276" t="s">
@@ -19957,13 +19968,13 @@
         <v>244</v>
       </c>
       <c r="C32" s="159" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D32" s="159" t="s">
         <v>190</v>
       </c>
       <c r="E32" s="160" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F32" s="199" t="s">
         <v>27</v>
@@ -19973,7 +19984,7 @@
       </c>
       <c r="H32" s="166"/>
       <c r="I32" s="354" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J32" s="13"/>
     </row>
@@ -19985,7 +19996,7 @@
         <v>245</v>
       </c>
       <c r="C33" s="159" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D33" s="159" t="s">
         <v>191</v>
@@ -20001,7 +20012,7 @@
       </c>
       <c r="H33" s="163"/>
       <c r="I33" s="354" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J33" s="13"/>
     </row>
@@ -20009,7 +20020,7 @@
       <c r="A34" s="274"/>
       <c r="B34" s="275"/>
       <c r="C34" s="277" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D34" s="277"/>
       <c r="E34" s="276" t="s">
@@ -20051,7 +20062,7 @@
       </c>
       <c r="H35" s="163"/>
       <c r="I35" s="354" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J35" s="13"/>
     </row>
@@ -20079,7 +20090,7 @@
       </c>
       <c r="H36" s="163"/>
       <c r="I36" s="354" t="s">
-        <v>593</v>
+        <v>842</v>
       </c>
       <c r="J36" s="13"/>
     </row>
@@ -20129,7 +20140,7 @@
       </c>
       <c r="H38" s="163"/>
       <c r="I38" s="354" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J38" s="13"/>
     </row>
@@ -20147,7 +20158,7 @@
         <v>191</v>
       </c>
       <c r="E39" s="181" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F39" s="198" t="s">
         <v>27</v>
@@ -20157,7 +20168,7 @@
       </c>
       <c r="H39" s="179"/>
       <c r="I39" s="356" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J39" s="13"/>
     </row>
@@ -20189,7 +20200,7 @@
       <c r="C41" s="266"/>
       <c r="D41" s="159"/>
       <c r="E41" s="283" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F41" s="266"/>
       <c r="G41" s="284">
@@ -20384,7 +20395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87B95B5-C66B-2243-9108-B48223A5272C}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -20406,14 +20417,14 @@
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="120" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C6" s="234"/>
     </row>
@@ -20423,7 +20434,7 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -20440,7 +20451,7 @@
         <v>532</v>
       </c>
       <c r="H9" s="291" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I9" s="295" t="s">
         <v>533</v>
@@ -20521,7 +20532,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D13" s="95">
         <v>1</v>
@@ -20613,7 +20624,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D17" s="95">
         <v>1</v>
@@ -20636,7 +20647,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D18" s="95">
         <v>1</v>
@@ -20715,7 +20726,7 @@
         <v>1.1818181818181819</v>
       </c>
       <c r="E21" s="318" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G21" s="294">
         <f>SUM(G10:G20)</f>
@@ -20768,14 +20779,14 @@
         <v>532</v>
       </c>
       <c r="C25" s="470" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D25" s="470"/>
       <c r="E25" s="470"/>
       <c r="F25" s="470"/>
       <c r="G25" s="470"/>
       <c r="H25" s="470" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I25" s="470"/>
       <c r="J25" s="470"/>
@@ -20787,7 +20798,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="382" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C26" s="471" t="s">
         <v>553</v>
@@ -20797,7 +20808,7 @@
       <c r="F26" s="471"/>
       <c r="G26" s="471"/>
       <c r="H26" s="471" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I26" s="471"/>
       <c r="J26" s="471"/>
@@ -20812,7 +20823,7 @@
         <v>533</v>
       </c>
       <c r="C27" s="470" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D27" s="470"/>
       <c r="E27" s="470"/>
@@ -20834,7 +20845,7 @@
         <v>482</v>
       </c>
       <c r="C28" s="470" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D28" s="470"/>
       <c r="E28" s="470"/>
@@ -20883,7 +20894,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="239"/>
@@ -20903,7 +20914,7 @@
     </row>
     <row r="34" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="D34" s="239"/>
       <c r="G34" s="350"/>
@@ -20993,7 +21004,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -21041,7 +21052,7 @@
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="437" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B4" s="437"/>
       <c r="C4" s="437"/>
@@ -21126,19 +21137,19 @@
         <v>22</v>
       </c>
       <c r="F8" s="268" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="G8" s="269" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H8" s="268" t="s">
         <v>521</v>
       </c>
       <c r="I8" s="270" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="J8" s="258" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="K8" s="156"/>
       <c r="L8" s="127"/>
@@ -21164,7 +21175,7 @@
         <v>179</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F9" s="199" t="s">
         <v>27</v>
@@ -21174,7 +21185,7 @@
       </c>
       <c r="H9" s="169"/>
       <c r="I9" s="297" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="J9" s="297"/>
       <c r="K9" s="176"/>
@@ -21193,7 +21204,7 @@
         <v>179</v>
       </c>
       <c r="E10" s="170" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F10" s="199" t="s">
         <v>27</v>
@@ -21203,7 +21214,7 @@
       </c>
       <c r="H10" s="169"/>
       <c r="I10" s="297" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="J10" s="297"/>
       <c r="K10" s="176"/>
@@ -21246,7 +21257,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="F12" s="199" t="s">
         <v>27</v>
@@ -21256,7 +21267,7 @@
       </c>
       <c r="H12" s="163"/>
       <c r="I12" s="148" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="J12" s="383"/>
       <c r="K12" s="176"/>
@@ -21275,7 +21286,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="170" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F13" s="199" t="s">
         <v>27</v>
@@ -21285,7 +21296,7 @@
       </c>
       <c r="H13" s="163"/>
       <c r="I13" s="148" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J13" s="383"/>
       <c r="K13" s="176"/>
@@ -21325,10 +21336,10 @@
         <v>191</v>
       </c>
       <c r="D15" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E15" s="160" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F15" s="199" t="s">
         <v>27</v>
@@ -21338,10 +21349,10 @@
       </c>
       <c r="H15" s="163"/>
       <c r="I15" s="148" t="s">
-        <v>668</v>
+        <v>847</v>
       </c>
       <c r="J15" s="385" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K15" s="176"/>
     </row>
@@ -21356,10 +21367,10 @@
         <v>191</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E16" s="170" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F16" s="199" t="s">
         <v>27</v>
@@ -21369,10 +21380,10 @@
       </c>
       <c r="H16" s="163"/>
       <c r="I16" s="148" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J16" s="385" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="K16" s="176"/>
     </row>
@@ -21411,10 +21422,10 @@
         <v>191</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E18" s="170" t="s">
-        <v>699</v>
+        <v>828</v>
       </c>
       <c r="F18" s="199" t="s">
         <v>27</v>
@@ -21424,7 +21435,7 @@
       </c>
       <c r="H18" s="163"/>
       <c r="I18" s="148" t="s">
-        <v>696</v>
+        <v>830</v>
       </c>
       <c r="J18" s="383"/>
       <c r="K18" s="176"/>
@@ -21440,10 +21451,10 @@
         <v>191</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>674</v>
+        <v>829</v>
       </c>
       <c r="F19" s="199" t="s">
         <v>27</v>
@@ -21453,7 +21464,7 @@
       </c>
       <c r="H19" s="163"/>
       <c r="I19" s="148" t="s">
-        <v>697</v>
+        <v>831</v>
       </c>
       <c r="J19" s="383"/>
       <c r="K19" s="176"/>
@@ -21493,10 +21504,10 @@
         <v>191</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E21" s="170" t="s">
-        <v>698</v>
+        <v>843</v>
       </c>
       <c r="F21" s="199" t="s">
         <v>27</v>
@@ -21506,7 +21517,7 @@
       </c>
       <c r="H21" s="163"/>
       <c r="I21" s="148" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="J21" s="383"/>
       <c r="K21" s="176"/>
@@ -21522,10 +21533,10 @@
         <v>191</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E22" s="160" t="s">
-        <v>676</v>
+        <v>844</v>
       </c>
       <c r="F22" s="199" t="s">
         <v>27</v>
@@ -21535,7 +21546,7 @@
       </c>
       <c r="H22" s="163"/>
       <c r="I22" s="148" t="s">
-        <v>701</v>
+        <v>849</v>
       </c>
       <c r="J22" s="383"/>
       <c r="K22" s="176"/>
@@ -21578,7 +21589,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="164" t="s">
-        <v>702</v>
+        <v>845</v>
       </c>
       <c r="F24" s="199" t="s">
         <v>27</v>
@@ -21588,10 +21599,10 @@
       </c>
       <c r="H24" s="163"/>
       <c r="I24" s="148" t="s">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="J24" s="383" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="K24" s="176"/>
     </row>
@@ -21609,7 +21620,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>704</v>
+        <v>846</v>
       </c>
       <c r="F25" s="199" t="s">
         <v>27</v>
@@ -21619,10 +21630,10 @@
       </c>
       <c r="H25" s="163"/>
       <c r="I25" s="148" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="J25" s="383" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="K25" s="176"/>
     </row>
@@ -21664,7 +21675,7 @@
         <v>183</v>
       </c>
       <c r="E27" s="160" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="F27" s="199" t="s">
         <v>27</v>
@@ -21674,7 +21685,7 @@
       </c>
       <c r="H27" s="163"/>
       <c r="I27" s="148" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="J27" s="383"/>
       <c r="K27" s="176"/>
@@ -21693,7 +21704,7 @@
         <v>183</v>
       </c>
       <c r="E28" s="160" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F28" s="199" t="s">
         <v>27</v>
@@ -21703,10 +21714,10 @@
       </c>
       <c r="H28" s="163"/>
       <c r="I28" s="148" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="J28" s="383" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K28" s="176"/>
     </row>
@@ -21748,7 +21759,7 @@
         <v>180</v>
       </c>
       <c r="E30" s="159" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="F30" s="199" t="s">
         <v>27</v>
@@ -21758,7 +21769,7 @@
       </c>
       <c r="H30" s="163"/>
       <c r="I30" s="148" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="J30" s="383"/>
       <c r="K30" s="176"/>
@@ -21777,7 +21788,7 @@
         <v>180</v>
       </c>
       <c r="E31" s="159" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="F31" s="199" t="s">
         <v>27</v>
@@ -21787,7 +21798,7 @@
       </c>
       <c r="H31" s="163"/>
       <c r="I31" s="148" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="J31" s="383"/>
       <c r="K31" s="176"/>
@@ -21830,7 +21841,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="159" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="F33" s="199" t="s">
         <v>27</v>
@@ -21840,10 +21851,10 @@
       </c>
       <c r="H33" s="163"/>
       <c r="I33" s="148" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="J33" s="385" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="K33" s="176"/>
     </row>
@@ -21861,7 +21872,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="164" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F34" s="199" t="s">
         <v>27</v>
@@ -21871,10 +21882,10 @@
       </c>
       <c r="H34" s="163"/>
       <c r="I34" s="148" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="J34" s="385" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="K34" s="176"/>
     </row>
@@ -21916,7 +21927,7 @@
         <v>181</v>
       </c>
       <c r="E36" s="159" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="F36" s="199" t="s">
         <v>27</v>
@@ -21926,7 +21937,7 @@
       </c>
       <c r="H36" s="163"/>
       <c r="I36" s="148" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="J36" s="383"/>
       <c r="K36" s="176"/>
@@ -21945,7 +21956,7 @@
         <v>181</v>
       </c>
       <c r="E37" s="164" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F37" s="199" t="s">
         <v>27</v>
@@ -21955,7 +21966,7 @@
       </c>
       <c r="H37" s="163"/>
       <c r="I37" s="148" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="J37" s="383"/>
       <c r="K37" s="176"/>
@@ -21998,7 +22009,7 @@
         <v>182</v>
       </c>
       <c r="E39" s="164" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="F39" s="199" t="s">
         <v>27</v>
@@ -22008,7 +22019,7 @@
       </c>
       <c r="H39" s="163"/>
       <c r="I39" s="148" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="J39" s="383"/>
       <c r="K39" s="176"/>
@@ -22027,7 +22038,7 @@
         <v>182</v>
       </c>
       <c r="E40" s="160" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="F40" s="199" t="s">
         <v>27</v>
@@ -22037,7 +22048,7 @@
       </c>
       <c r="H40" s="163"/>
       <c r="I40" s="148" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="J40" s="383"/>
       <c r="K40" s="176"/>
@@ -22072,7 +22083,7 @@
       <c r="C42" s="164"/>
       <c r="D42" s="164"/>
       <c r="E42" s="308" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F42" s="263"/>
       <c r="G42" s="309">
@@ -22737,7 +22748,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -22755,7 +22766,7 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="120" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="239"/>
@@ -22771,7 +22782,7 @@
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="C6" s="244"/>
       <c r="D6" s="254"/>
@@ -22819,7 +22830,7 @@
         <v>532</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H8" s="295" t="s">
         <v>533</v>
@@ -23067,7 +23078,7 @@
         <v>1.4545454545454546</v>
       </c>
       <c r="D19" s="323" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F19" s="291">
         <f>SUM(F9:F18)</f>
@@ -23118,14 +23129,14 @@
         <v>532</v>
       </c>
       <c r="C23" s="470" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D23" s="470"/>
       <c r="E23" s="470"/>
       <c r="F23" s="470"/>
       <c r="G23" s="470"/>
       <c r="H23" s="470" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I23" s="470"/>
       <c r="J23" s="470"/>
@@ -23137,7 +23148,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="382" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C24" s="471" t="s">
         <v>553</v>
@@ -23147,7 +23158,7 @@
       <c r="F24" s="471"/>
       <c r="G24" s="471"/>
       <c r="H24" s="471" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I24" s="471"/>
       <c r="J24" s="471"/>
@@ -23162,7 +23173,7 @@
         <v>533</v>
       </c>
       <c r="C25" s="470" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D25" s="470"/>
       <c r="E25" s="470"/>
@@ -23184,7 +23195,7 @@
         <v>482</v>
       </c>
       <c r="C26" s="470" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D26" s="470"/>
       <c r="E26" s="470"/>
@@ -23219,7 +23230,7 @@
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D30" s="239"/>
       <c r="G30" s="350"/>
@@ -23232,7 +23243,7 @@
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="D32" s="239"/>
       <c r="G32" s="350"/>
@@ -23312,8 +23323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D966579-32CD-6240-B872-5F59F7917979}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23335,7 +23346,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -23351,7 +23362,7 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="120" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C4" s="234"/>
       <c r="D4" s="239"/>
@@ -23418,7 +23429,7 @@
         <v>532</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H8" s="295" t="s">
         <v>533</v>
@@ -23666,7 +23677,7 @@
         <v>1.4545454545454546</v>
       </c>
       <c r="D19" s="323" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F19" s="329">
         <f>SUM(F9:F18)</f>
@@ -23687,7 +23698,7 @@
     </row>
     <row r="20" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="249" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="C20" s="311"/>
       <c r="D20" s="248"/>
@@ -23750,7 +23761,7 @@
     </row>
     <row r="25" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="196" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C25" s="310">
         <v>1</v>
@@ -23799,7 +23810,7 @@
     </row>
     <row r="29" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="196" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C29" s="310">
         <v>1</v>
@@ -23814,7 +23825,7 @@
     <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="196" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C30" s="310">
         <v>1</v>
@@ -23864,7 +23875,7 @@
         <v>1.1818181818181819</v>
       </c>
       <c r="D33" s="331" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H33" s="239"/>
       <c r="P33"/>
@@ -23872,7 +23883,7 @@
     </row>
     <row r="34" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="249" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="C34" s="330" t="s">
         <v>537</v>
@@ -23886,14 +23897,14 @@
     </row>
     <row r="35" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C35" s="334">
         <f>AVERAGE(C19,C33)</f>
         <v>1.3181818181818183</v>
       </c>
       <c r="D35" s="331" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H35" s="239"/>
       <c r="P35"/>
@@ -23913,7 +23924,7 @@
     </row>
     <row r="38" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="D38" s="239"/>
       <c r="H38" s="239"/>
@@ -23932,13 +23943,13 @@
         <v>187</v>
       </c>
       <c r="C40" s="314" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D40" s="327" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E40" s="339" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F40" s="340" t="s">
         <v>538</v>
@@ -23959,7 +23970,7 @@
         <v>2.09</v>
       </c>
       <c r="F41" s="318" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -23995,7 +24006,7 @@
         <v>2.09</v>
       </c>
       <c r="F43" s="318" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="2:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -24013,7 +24024,7 @@
         <v>2.09</v>
       </c>
       <c r="F44" s="318" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="2:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -24103,7 +24114,7 @@
         <v>2.09</v>
       </c>
       <c r="F49" s="318" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -24171,14 +24182,14 @@
         <v>532</v>
       </c>
       <c r="C54" s="470" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D54" s="470"/>
       <c r="E54" s="470"/>
       <c r="F54" s="470"/>
       <c r="G54" s="470"/>
       <c r="H54" s="470" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I54" s="470"/>
       <c r="J54" s="470"/>
@@ -24190,7 +24201,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="127" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C55" s="471" t="s">
         <v>553</v>
@@ -24200,7 +24211,7 @@
       <c r="F55" s="471"/>
       <c r="G55" s="471"/>
       <c r="H55" s="471" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I55" s="471"/>
       <c r="J55" s="471"/>
@@ -24215,7 +24226,7 @@
         <v>533</v>
       </c>
       <c r="C56" s="470" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D56" s="470"/>
       <c r="E56" s="470"/>
@@ -24237,7 +24248,7 @@
         <v>482</v>
       </c>
       <c r="C57" s="470" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D57" s="470"/>
       <c r="E57" s="470"/>
@@ -24272,7 +24283,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="239"/>
@@ -24284,7 +24295,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="239"/>
@@ -24498,18 +24509,18 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C50" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D50" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -24520,7 +24531,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -24531,7 +24542,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -24542,7 +24553,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -24591,21 +24602,21 @@
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="192" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C5" s="423" t="s">
         <v>477</v>
@@ -24631,10 +24642,10 @@
         <v>481</v>
       </c>
       <c r="F6" s="193" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G6" s="193" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -24760,7 +24771,7 @@
     <row r="18" spans="2:7" s="4" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="192" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C19" s="423" t="s">
         <v>477</v>
@@ -24786,10 +24797,10 @@
         <v>481</v>
       </c>
       <c r="F20" s="193" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G20" s="193" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -24923,7 +24934,7 @@
     </row>
     <row r="34" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="192" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C34" s="423" t="s">
         <v>477</v>
@@ -24949,10 +24960,10 @@
         <v>481</v>
       </c>
       <c r="F35" s="193" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G35" s="193" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -25078,7 +25089,7 @@
     <row r="47" spans="2:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:7" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="194" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C48" s="376" t="s">
         <v>477</v>
@@ -25126,7 +25137,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="196" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C52" s="370"/>
       <c r="D52" s="4"/>
@@ -25166,7 +25177,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="196" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C56" s="371"/>
       <c r="D56" s="4"/>
@@ -25176,7 +25187,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="196" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C57" s="371"/>
       <c r="D57" s="4"/>
@@ -25217,7 +25228,7 @@
     <row r="61" spans="2:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:7" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="194" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C62" s="376" t="s">
         <v>477</v>
@@ -25334,8 +25345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6935B2C9-A932-BA49-B5FD-D7DCE58D3BB9}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25366,7 +25377,7 @@
     </row>
     <row r="2" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H2" s="341"/>
       <c r="I2" s="9"/>
@@ -25393,7 +25404,7 @@
     </row>
     <row r="5" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="120" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="C5" s="234"/>
       <c r="H5" s="341"/>
@@ -25415,7 +25426,7 @@
     </row>
     <row r="7" spans="1:18" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D7" s="321" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="E7" s="211"/>
       <c r="F7" s="211"/>
@@ -25428,22 +25439,22 @@
         <v>187</v>
       </c>
       <c r="E8" s="257" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F8" s="256" t="s">
         <v>210</v>
       </c>
       <c r="G8" s="343" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H8" s="344" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="J8" s="320" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="K8" s="322" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="N8" s="232"/>
     </row>
@@ -25461,7 +25472,7 @@
         <v>2.09</v>
       </c>
       <c r="H9" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J9" s="288" t="s">
         <v>481</v>
@@ -25489,7 +25500,7 @@
         <v>533</v>
       </c>
       <c r="J10" s="288" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K10" s="337">
         <f t="shared" si="0"/>
@@ -25511,7 +25522,7 @@
         <v>2.09</v>
       </c>
       <c r="H11" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J11" s="288" t="s">
         <v>481</v>
@@ -25536,10 +25547,10 @@
         <v>2.09</v>
       </c>
       <c r="H12" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J12" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K12" s="337">
         <f t="shared" si="0"/>
@@ -25564,7 +25575,7 @@
         <v>533</v>
       </c>
       <c r="J13" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K13" s="337">
         <f t="shared" si="0"/>
@@ -25588,7 +25599,7 @@
         <v>482</v>
       </c>
       <c r="J14" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K14" s="337">
         <f t="shared" si="0"/>
@@ -25612,7 +25623,7 @@
         <v>533</v>
       </c>
       <c r="J15" s="288" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K15" s="337">
         <f t="shared" si="0"/>
@@ -25636,7 +25647,7 @@
         <v>482</v>
       </c>
       <c r="J16" s="288" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K16" s="337">
         <f t="shared" si="0"/>
@@ -25657,10 +25668,10 @@
         <v>2.09</v>
       </c>
       <c r="H17" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J17" s="288" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="K17" s="337">
         <f t="shared" si="0"/>
@@ -25684,7 +25695,7 @@
         <v>533</v>
       </c>
       <c r="J18" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K18" s="337">
         <f t="shared" si="0"/>
@@ -25725,7 +25736,7 @@
     </row>
     <row r="21" spans="4:20" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" s="321" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="E21" s="254"/>
       <c r="F21" s="211"/>
@@ -25738,22 +25749,22 @@
         <v>187</v>
       </c>
       <c r="E22" s="257" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F22" s="256" t="s">
         <v>210</v>
       </c>
       <c r="G22" s="343" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H22" s="344" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="J22" s="320" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="K22" s="322" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="4:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -25770,10 +25781,10 @@
         <v>2.09</v>
       </c>
       <c r="H23" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J23" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K23" s="337">
         <f t="shared" ref="K23:K33" si="1">AVERAGE(E23:G23)</f>
@@ -25797,7 +25808,7 @@
         <v>533</v>
       </c>
       <c r="J24" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K24" s="337">
         <f t="shared" si="1"/>
@@ -25818,7 +25829,7 @@
         <v>2.09</v>
       </c>
       <c r="H25" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J25" s="288" t="s">
         <v>481</v>
@@ -25842,7 +25853,7 @@
         <v>2.09</v>
       </c>
       <c r="H26" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J26" s="288" t="s">
         <v>481</v>
@@ -25893,7 +25904,7 @@
         <v>482</v>
       </c>
       <c r="J28" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K28" s="337">
         <f t="shared" si="1"/>
@@ -25919,7 +25930,7 @@
         <v>533</v>
       </c>
       <c r="J29" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K29" s="337">
         <f t="shared" si="1"/>
@@ -25968,10 +25979,10 @@
         <v>2.09</v>
       </c>
       <c r="H31" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J31" s="288" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="K31" s="337">
         <f t="shared" si="1"/>
@@ -25997,7 +26008,7 @@
         <v>533</v>
       </c>
       <c r="J32" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K32" s="337">
         <f t="shared" si="1"/>
@@ -26034,7 +26045,7 @@
     </row>
     <row r="35" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D35" s="18" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="4:20" x14ac:dyDescent="0.2">
@@ -26042,22 +26053,22 @@
         <v>187</v>
       </c>
       <c r="E36" s="257" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F36" s="256" t="s">
         <v>210</v>
       </c>
       <c r="G36" s="343" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H36" s="344" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="J36" s="320" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="K36" s="322" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
@@ -26080,10 +26091,10 @@
         <v>2.09</v>
       </c>
       <c r="H37" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J37" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K37" s="337">
         <f t="shared" ref="K37:K47" si="2">AVERAGE(E37:G37)</f>
@@ -26140,7 +26151,7 @@
         <v>2.09</v>
       </c>
       <c r="H39" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J39" s="288" t="s">
         <v>481</v>
@@ -26170,10 +26181,10 @@
         <v>2.09</v>
       </c>
       <c r="H40" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J40" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K40" s="337">
         <f t="shared" si="2"/>
@@ -26233,7 +26244,7 @@
         <v>482</v>
       </c>
       <c r="J42" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K42" s="337">
         <f t="shared" si="2"/>
@@ -26320,10 +26331,10 @@
         <v>2.09</v>
       </c>
       <c r="H45" s="345" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J45" s="288" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="K45" s="337">
         <f t="shared" si="2"/>
@@ -26353,7 +26364,7 @@
         <v>533</v>
       </c>
       <c r="J46" s="288" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K46" s="337">
         <f t="shared" si="2"/>
@@ -26414,7 +26425,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="127" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -26445,7 +26456,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -26501,18 +26512,18 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68" s="4" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="232" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -26523,7 +26534,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -26533,7 +26544,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -26553,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -26564,17 +26575,17 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C75" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C76" s="4" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -26634,7 +26645,7 @@
     </row>
     <row r="4" spans="2:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="437" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C4" s="437"/>
       <c r="D4" s="437"/>
@@ -26891,7 +26902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61B83B-A191-0C40-9766-46618133E255}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -26935,7 +26946,7 @@
     <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="473" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="C4" s="473"/>
       <c r="D4" s="473"/>
@@ -26953,7 +26964,7 @@
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="473" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="C5" s="473"/>
       <c r="D5" s="473"/>
@@ -26964,7 +26975,7 @@
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="473" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="C6" s="473"/>
       <c r="D6" s="473"/>
@@ -26975,7 +26986,7 @@
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="473" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="C7" s="473"/>
       <c r="D7" s="473"/>
@@ -26987,23 +26998,23 @@
     <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="390" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C11" s="390" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="D11" s="390" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="E11" s="390" t="s">
         <v>187</v>
@@ -27012,10 +27023,10 @@
         <v>481</v>
       </c>
       <c r="G11" s="390" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="H11" s="390" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27027,7 +27038,7 @@
       </c>
       <c r="D12" s="111"/>
       <c r="E12" s="288" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F12" s="288" t="s">
         <v>481</v>
@@ -27036,7 +27047,7 @@
         <v>8.5</v>
       </c>
       <c r="H12" s="288" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27057,7 +27068,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="389" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27078,7 +27089,7 @@
         <v>2.5</v>
       </c>
       <c r="H14" s="389" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -27282,61 +27293,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C3" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C4" s="420" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C5" s="419" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C6" s="419" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="C7" s="419"/>
     </row>
@@ -27345,37 +27356,37 @@
         <v>179</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="C8" s="419" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
       <c r="B9" s="25" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="C9" s="419" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
       <c r="B10" s="25" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C10" s="419" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="117"/>
       <c r="B11" s="25" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="C11" s="419" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27383,19 +27394,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="C12" s="419" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="118"/>
       <c r="B13" s="25" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="C13" s="419" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27403,37 +27414,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="328" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="C14" s="419" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="119"/>
       <c r="B15" s="328" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="C15" s="419" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="119"/>
       <c r="B16" s="421" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="C16" s="419" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="119"/>
       <c r="B17" s="421" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C17" s="419" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27441,28 +27452,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C18" s="419" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="119"/>
       <c r="B19" s="25" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="C19" s="419" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="119"/>
       <c r="B20" s="25" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="C20" s="419" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -27470,10 +27481,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C21" s="419" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27481,19 +27492,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="328" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="C22" s="392" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="119"/>
       <c r="B23" s="25" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="C23" s="419" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27501,10 +27512,10 @@
         <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="C24" s="396" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27512,19 +27523,19 @@
         <v>180</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="C25" s="419" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="119"/>
       <c r="B26" s="25" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C26" s="419" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -27532,19 +27543,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="117"/>
       <c r="B28" s="25" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="C28" s="396" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27552,10 +27563,10 @@
         <v>181</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C29" s="419" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27563,15 +27574,15 @@
         <v>182</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="C30" s="419" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="422" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27579,10 +27590,10 @@
         <v>194</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="C32" s="419" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27590,32 +27601,32 @@
         <v>200</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="C33" s="419" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C34" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C35" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -27623,10 +27634,10 @@
         <v>196</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="C36" s="419" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27634,56 +27645,56 @@
         <v>171</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B38" s="25" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C38" s="419" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="C39" s="419" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="C40" s="419" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C41" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C42" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27691,10 +27702,10 @@
         <v>197</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="C43" s="419" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27702,10 +27713,10 @@
         <v>174</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27713,10 +27724,10 @@
         <v>176</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="C45" s="419" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -27724,10 +27735,10 @@
         <v>198</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C46" s="419" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -27745,9 +27756,9 @@
     <hyperlink ref="C18" r:id="rId11" xr:uid="{A3980E67-4BDB-884F-B364-DAA5062B392C}"/>
     <hyperlink ref="C30" r:id="rId12" xr:uid="{CA11F880-D5C9-9D48-A4AC-46C7A2B6DA99}"/>
     <hyperlink ref="C43" r:id="rId13" xr:uid="{E7A97860-2775-E64B-A209-9403AAD5EE97}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{67270427-FAAA-6348-96E4-50B89B9D5837}"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://sites.unicef.org/csr/css/industry-toolkit-children-digital-marketing.pdf" xr:uid="{67270427-FAAA-6348-96E4-50B89B9D5837}"/>
     <hyperlink ref="C39" r:id="rId15" xr:uid="{EE548DB7-CE60-CD45-AED4-CD9FD6839E0D}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{6D7CE02E-9569-874E-81AB-5905FF5582D1}"/>
+    <hyperlink ref="C20" r:id="rId16" display="https://www.unicef.org.uk/babyfriendly/baby-friendly-resources/international-code-marketing-breastmilk-substitutes-resources/guide-to-working-within-the-code/" xr:uid="{6D7CE02E-9569-874E-81AB-5905FF5582D1}"/>
     <hyperlink ref="C14" r:id="rId17" xr:uid="{459F5722-74E6-BF46-BED4-1C570A3F5877}"/>
     <hyperlink ref="C16" r:id="rId18" xr:uid="{0D333FF0-D066-0C49-AF23-ECD0E1AE4C69}"/>
     <hyperlink ref="C15" r:id="rId19" xr:uid="{C817D6EA-2DB6-BD44-8707-A91AFBB209CC}"/>
@@ -30063,8 +30074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449AE6C8-153B-964A-9C41-8E3B30E165E1}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30135,10 +30146,10 @@
         <v>215</v>
       </c>
       <c r="C3" s="156" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="D3" s="156" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>187</v>
@@ -30150,7 +30161,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="156" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="I3" s="201" t="s">
         <v>58</v>
@@ -30165,13 +30176,13 @@
         <v>199</v>
       </c>
       <c r="M3" s="207" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="N3" s="156" t="s">
         <v>170</v>
       </c>
       <c r="O3" s="393" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="P3" s="134" t="s">
         <v>272</v>
@@ -30209,7 +30220,7 @@
         <v>191</v>
       </c>
       <c r="G4" s="159" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H4" s="160" t="s">
         <v>517</v>
@@ -30232,7 +30243,7 @@
       </c>
       <c r="N4" s="158"/>
       <c r="O4" s="354" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P4" s="129"/>
       <c r="Q4" s="145"/>
@@ -30327,7 +30338,7 @@
         <v>191</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H6" s="160" t="s">
         <v>517</v>
@@ -30350,7 +30361,7 @@
       </c>
       <c r="N6" s="161"/>
       <c r="O6" s="354" t="s">
-        <v>492</v>
+        <v>827</v>
       </c>
       <c r="P6" s="131"/>
       <c r="Q6" s="145"/>
@@ -30386,7 +30397,7 @@
         <v>191</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>558</v>
+        <v>836</v>
       </c>
       <c r="H7" s="160" t="s">
         <v>517</v>
@@ -30409,7 +30420,7 @@
       </c>
       <c r="N7" s="161"/>
       <c r="O7" s="354" t="s">
-        <v>498</v>
+        <v>834</v>
       </c>
       <c r="P7" s="131"/>
       <c r="Q7" s="145"/>
@@ -30445,7 +30456,7 @@
         <v>191</v>
       </c>
       <c r="G8" s="160" t="s">
-        <v>559</v>
+        <v>837</v>
       </c>
       <c r="H8" s="160" t="s">
         <v>517</v>
@@ -30468,7 +30479,7 @@
       </c>
       <c r="N8" s="161"/>
       <c r="O8" s="354" t="s">
-        <v>499</v>
+        <v>835</v>
       </c>
       <c r="P8" s="131"/>
       <c r="Q8" s="145"/>
@@ -30504,7 +30515,7 @@
         <v>191</v>
       </c>
       <c r="G9" s="160" t="s">
-        <v>566</v>
+        <v>838</v>
       </c>
       <c r="H9" s="160" t="s">
         <v>517</v>
@@ -30563,7 +30574,7 @@
         <v>191</v>
       </c>
       <c r="G10" s="160" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H10" s="160" t="s">
         <v>517</v>
@@ -30622,7 +30633,7 @@
         <v>191</v>
       </c>
       <c r="G11" s="160" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H11" s="160" t="s">
         <v>517</v>
@@ -30681,7 +30692,7 @@
         <v>191</v>
       </c>
       <c r="G12" s="160" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H12" s="160" t="s">
         <v>517</v>
@@ -30740,7 +30751,7 @@
         <v>191</v>
       </c>
       <c r="G13" s="181" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H13" s="160" t="s">
         <v>517</v>
@@ -30799,7 +30810,7 @@
         <v>191</v>
       </c>
       <c r="G14" s="227" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H14" s="160" t="s">
         <v>517</v>
@@ -30860,7 +30871,7 @@
         <v>190</v>
       </c>
       <c r="G15" s="160" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H15" s="170" t="s">
         <v>510</v>
@@ -30882,7 +30893,7 @@
       </c>
       <c r="N15" s="160"/>
       <c r="O15" s="353" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="T15" s="65"/>
       <c r="U15" s="65"/>
@@ -30915,7 +30926,7 @@
         <v>191</v>
       </c>
       <c r="G16" s="164" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H16" s="170" t="s">
         <v>509</v>
@@ -30971,7 +30982,7 @@
         <v>190</v>
       </c>
       <c r="G17" s="160" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H17" s="170" t="s">
         <v>510</v>
@@ -30993,7 +31004,7 @@
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="353" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="T17" s="65"/>
       <c r="U17" s="65"/>
@@ -31026,7 +31037,7 @@
         <v>191</v>
       </c>
       <c r="G18" s="164" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H18" s="170" t="s">
         <v>509</v>
@@ -31082,7 +31093,7 @@
         <v>190</v>
       </c>
       <c r="G19" s="160" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H19" s="170" t="s">
         <v>510</v>
@@ -31104,7 +31115,7 @@
       </c>
       <c r="N19" s="166"/>
       <c r="O19" s="354" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="102" x14ac:dyDescent="0.2">
@@ -31149,7 +31160,7 @@
       </c>
       <c r="N20" s="166"/>
       <c r="O20" s="354" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -31163,10 +31174,10 @@
         <v>186</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E21" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F21" s="159" t="s">
         <v>190</v>
@@ -31194,7 +31205,7 @@
       </c>
       <c r="N21" s="163"/>
       <c r="O21" s="354" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P21" s="13"/>
       <c r="S21" s="9"/>
@@ -31221,10 +31232,10 @@
         <v>186</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E22" s="159" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F22" s="159" t="s">
         <v>191</v>
@@ -31252,7 +31263,7 @@
       </c>
       <c r="N22" s="163"/>
       <c r="O22" s="354" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P22" s="13"/>
       <c r="S22" s="9"/>
@@ -31310,7 +31321,7 @@
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="354" t="s">
-        <v>601</v>
+        <v>839</v>
       </c>
       <c r="P23" s="13"/>
       <c r="S23" s="9"/>
@@ -31368,7 +31379,7 @@
       </c>
       <c r="N24" s="163"/>
       <c r="O24" s="354" t="s">
-        <v>602</v>
+        <v>840</v>
       </c>
       <c r="P24" s="13"/>
       <c r="S24" s="9"/>
@@ -31426,7 +31437,7 @@
       </c>
       <c r="N25" s="163"/>
       <c r="O25" s="354" t="s">
-        <v>599</v>
+        <v>841</v>
       </c>
       <c r="P25" s="13"/>
       <c r="S25" s="9"/>
@@ -31484,7 +31495,7 @@
       </c>
       <c r="N26" s="163"/>
       <c r="O26" s="354" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="P26" s="13"/>
       <c r="S26" s="9"/>
@@ -31542,7 +31553,7 @@
       </c>
       <c r="N27" s="163"/>
       <c r="O27" s="354" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="P27" s="13"/>
       <c r="S27" s="9"/>
@@ -31600,10 +31611,10 @@
       </c>
       <c r="N28" s="163"/>
       <c r="O28" s="354" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P28" s="392" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -31660,7 +31671,7 @@
       </c>
       <c r="N29" s="166"/>
       <c r="O29" s="354" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="P29" s="13"/>
       <c r="S29" s="9"/>
@@ -31696,7 +31707,7 @@
         <v>191</v>
       </c>
       <c r="G30" s="167" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H30" s="170" t="s">
         <v>509</v>
@@ -31718,7 +31729,7 @@
       </c>
       <c r="N30" s="166"/>
       <c r="O30" s="354" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P30" s="13"/>
       <c r="S30" s="9"/>
@@ -31754,7 +31765,7 @@
         <v>190</v>
       </c>
       <c r="G31" s="160" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H31" s="170" t="s">
         <v>510</v>
@@ -31776,7 +31787,7 @@
       </c>
       <c r="N31" s="166"/>
       <c r="O31" s="354" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P31" s="13"/>
       <c r="S31" s="9"/>
@@ -31834,7 +31845,7 @@
       </c>
       <c r="N32" s="163"/>
       <c r="O32" s="354" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="P32" s="13"/>
       <c r="S32" s="9"/>
@@ -31890,7 +31901,7 @@
       </c>
       <c r="N33" s="163"/>
       <c r="O33" s="354" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P33" s="13"/>
       <c r="S33" s="9"/>
@@ -31948,7 +31959,7 @@
       </c>
       <c r="N34" s="163"/>
       <c r="O34" s="354" t="s">
-        <v>593</v>
+        <v>842</v>
       </c>
       <c r="P34" s="13"/>
       <c r="S34" s="9"/>
@@ -32004,7 +32015,7 @@
       </c>
       <c r="N35" s="163"/>
       <c r="O35" s="354" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P35" s="13"/>
       <c r="S35" s="9"/>
@@ -32040,7 +32051,7 @@
         <v>191</v>
       </c>
       <c r="G36" s="181" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H36" s="170" t="s">
         <v>509</v>
@@ -32062,7 +32073,7 @@
       </c>
       <c r="N36" s="163"/>
       <c r="O36" s="356" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P36" s="13"/>
       <c r="S36" s="9"/>
@@ -32086,7 +32097,7 @@
         <v>250</v>
       </c>
       <c r="C37" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D37" s="167" t="s">
         <v>179</v>
@@ -32098,7 +32109,7 @@
         <v>191</v>
       </c>
       <c r="G37" s="170" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="H37" s="170" t="s">
         <v>510</v>
@@ -32120,7 +32131,7 @@
       </c>
       <c r="N37" s="169"/>
       <c r="O37" s="297" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="P37" s="395"/>
       <c r="Q37" s="9"/>
@@ -32146,7 +32157,7 @@
         <v>251</v>
       </c>
       <c r="C38" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D38" s="167" t="s">
         <v>179</v>
@@ -32158,7 +32169,7 @@
         <v>191</v>
       </c>
       <c r="G38" s="170" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H38" s="170" t="s">
         <v>509</v>
@@ -32180,7 +32191,7 @@
       </c>
       <c r="N38" s="169"/>
       <c r="O38" s="297" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="P38" s="395"/>
       <c r="Q38" s="9"/>
@@ -32206,7 +32217,7 @@
         <v>252</v>
       </c>
       <c r="C39" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D39" s="159" t="s">
         <v>4</v>
@@ -32218,7 +32229,7 @@
         <v>191</v>
       </c>
       <c r="G39" s="170" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="H39" s="170" t="s">
         <v>510</v>
@@ -32240,7 +32251,7 @@
       </c>
       <c r="N39" s="163"/>
       <c r="O39" s="354" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="P39" s="13"/>
       <c r="S39" s="9"/>
@@ -32264,7 +32275,7 @@
         <v>253</v>
       </c>
       <c r="C40" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D40" s="159" t="s">
         <v>4</v>
@@ -32276,7 +32287,7 @@
         <v>191</v>
       </c>
       <c r="G40" s="170" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H40" s="170" t="s">
         <v>509</v>
@@ -32298,7 +32309,7 @@
       </c>
       <c r="N40" s="163"/>
       <c r="O40" s="354" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="P40" s="13"/>
       <c r="S40" s="9"/>
@@ -32322,19 +32333,19 @@
         <v>254</v>
       </c>
       <c r="C41" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D41" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E41" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F41" s="167" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="H41" s="170" t="s">
         <v>510</v>
@@ -32356,10 +32367,10 @@
       </c>
       <c r="N41" s="163"/>
       <c r="O41" s="354" t="s">
-        <v>668</v>
+        <v>847</v>
       </c>
       <c r="P41" s="396" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -32382,19 +32393,19 @@
         <v>255</v>
       </c>
       <c r="C42" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D42" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E42" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F42" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G42" s="170" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H42" s="170" t="s">
         <v>509</v>
@@ -32416,10 +32427,10 @@
       </c>
       <c r="N42" s="163"/>
       <c r="O42" s="354" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="P42" s="396" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -32442,19 +32453,19 @@
         <v>256</v>
       </c>
       <c r="C43" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E43" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F43" s="167" t="s">
         <v>191</v>
       </c>
       <c r="G43" s="170" t="s">
-        <v>699</v>
+        <v>828</v>
       </c>
       <c r="H43" s="170" t="s">
         <v>510</v>
@@ -32476,7 +32487,7 @@
       </c>
       <c r="N43" s="163"/>
       <c r="O43" s="354" t="s">
-        <v>696</v>
+        <v>830</v>
       </c>
       <c r="P43" s="13"/>
       <c r="S43" s="9"/>
@@ -32500,19 +32511,19 @@
         <v>257</v>
       </c>
       <c r="C44" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E44" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F44" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G44" s="170" t="s">
-        <v>674</v>
+        <v>829</v>
       </c>
       <c r="H44" s="170" t="s">
         <v>509</v>
@@ -32534,7 +32545,7 @@
       </c>
       <c r="N44" s="163"/>
       <c r="O44" s="354" t="s">
-        <v>697</v>
+        <v>831</v>
       </c>
       <c r="P44" s="13"/>
       <c r="S44" s="9"/>
@@ -32558,19 +32569,19 @@
         <v>258</v>
       </c>
       <c r="C45" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E45" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F45" s="167" t="s">
         <v>191</v>
       </c>
       <c r="G45" s="170" t="s">
-        <v>698</v>
+        <v>843</v>
       </c>
       <c r="H45" s="170" t="s">
         <v>510</v>
@@ -32592,7 +32603,7 @@
       </c>
       <c r="N45" s="163"/>
       <c r="O45" s="354" t="s">
-        <v>700</v>
+        <v>848</v>
       </c>
       <c r="P45" s="13"/>
       <c r="S45" s="9"/>
@@ -32616,19 +32627,19 @@
         <v>259</v>
       </c>
       <c r="C46" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E46" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F46" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>676</v>
+        <v>844</v>
       </c>
       <c r="H46" s="170" t="s">
         <v>509</v>
@@ -32650,7 +32661,7 @@
       </c>
       <c r="N46" s="163"/>
       <c r="O46" s="354" t="s">
-        <v>701</v>
+        <v>849</v>
       </c>
       <c r="P46" s="13"/>
       <c r="S46" s="9"/>
@@ -32674,7 +32685,7 @@
         <v>260</v>
       </c>
       <c r="C47" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D47" s="159" t="s">
         <v>2</v>
@@ -32686,7 +32697,7 @@
         <v>191</v>
       </c>
       <c r="G47" s="164" t="s">
-        <v>702</v>
+        <v>845</v>
       </c>
       <c r="H47" s="170" t="s">
         <v>510</v>
@@ -32708,10 +32719,10 @@
       </c>
       <c r="N47" s="163"/>
       <c r="O47" s="354" t="s">
-        <v>675</v>
+        <v>850</v>
       </c>
       <c r="P47" s="392" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
@@ -32734,7 +32745,7 @@
         <v>261</v>
       </c>
       <c r="C48" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D48" s="159" t="s">
         <v>2</v>
@@ -32746,7 +32757,7 @@
         <v>191</v>
       </c>
       <c r="G48" s="160" t="s">
-        <v>704</v>
+        <v>846</v>
       </c>
       <c r="H48" s="170" t="s">
         <v>509</v>
@@ -32768,10 +32779,10 @@
       </c>
       <c r="N48" s="163"/>
       <c r="O48" s="354" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="P48" s="392" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -32794,7 +32805,7 @@
         <v>262</v>
       </c>
       <c r="C49" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D49" s="159" t="s">
         <v>183</v>
@@ -32806,7 +32817,7 @@
         <v>191</v>
       </c>
       <c r="G49" s="160" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="H49" s="170" t="s">
         <v>510</v>
@@ -32828,7 +32839,7 @@
       </c>
       <c r="N49" s="163"/>
       <c r="O49" s="354" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="P49" s="13"/>
       <c r="S49" s="9"/>
@@ -32852,7 +32863,7 @@
         <v>263</v>
       </c>
       <c r="C50" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D50" s="159" t="s">
         <v>183</v>
@@ -32864,7 +32875,7 @@
         <v>191</v>
       </c>
       <c r="G50" s="160" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="H50" s="170" t="s">
         <v>509</v>
@@ -32886,10 +32897,10 @@
       </c>
       <c r="N50" s="163"/>
       <c r="O50" s="354" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="P50" s="392" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -32912,7 +32923,7 @@
         <v>264</v>
       </c>
       <c r="C51" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D51" s="159" t="s">
         <v>180</v>
@@ -32924,7 +32935,7 @@
         <v>191</v>
       </c>
       <c r="G51" s="159" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="H51" s="170" t="s">
         <v>510</v>
@@ -32946,7 +32957,7 @@
       </c>
       <c r="N51" s="163"/>
       <c r="O51" s="354" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="P51" s="13"/>
       <c r="S51" s="9"/>
@@ -32970,7 +32981,7 @@
         <v>265</v>
       </c>
       <c r="C52" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D52" s="159" t="s">
         <v>180</v>
@@ -32982,7 +32993,7 @@
         <v>191</v>
       </c>
       <c r="G52" s="159" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="H52" s="170" t="s">
         <v>509</v>
@@ -33004,7 +33015,7 @@
       </c>
       <c r="N52" s="163"/>
       <c r="O52" s="354" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="P52" s="13"/>
       <c r="S52" s="9"/>
@@ -33028,7 +33039,7 @@
         <v>266</v>
       </c>
       <c r="C53" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D53" s="159" t="s">
         <v>6</v>
@@ -33040,7 +33051,7 @@
         <v>191</v>
       </c>
       <c r="G53" s="159" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="H53" s="170" t="s">
         <v>510</v>
@@ -33062,10 +33073,10 @@
       </c>
       <c r="N53" s="163"/>
       <c r="O53" s="354" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="P53" s="396" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -33088,7 +33099,7 @@
         <v>267</v>
       </c>
       <c r="C54" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D54" s="159" t="s">
         <v>6</v>
@@ -33100,7 +33111,7 @@
         <v>191</v>
       </c>
       <c r="G54" s="164" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="H54" s="170" t="s">
         <v>509</v>
@@ -33122,10 +33133,10 @@
       </c>
       <c r="N54" s="163"/>
       <c r="O54" s="354" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="P54" s="396" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -33148,7 +33159,7 @@
         <v>268</v>
       </c>
       <c r="C55" s="158" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D55" s="159" t="s">
         <v>181</v>
@@ -33160,7 +33171,7 @@
         <v>191</v>
       </c>
       <c r="G55" s="159" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="H55" s="170" t="s">
         <v>510</v>
@@ -33182,7 +33193,7 @@
       </c>
       <c r="N55" s="163"/>
       <c r="O55" s="354" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="P55" s="13"/>
       <c r="S55" s="9"/>
@@ -33206,7 +33217,7 @@
         <v>269</v>
       </c>
       <c r="C56" s="214" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D56" s="180" t="s">
         <v>181</v>
@@ -33218,7 +33229,7 @@
         <v>191</v>
       </c>
       <c r="G56" s="408" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="H56" s="397" t="s">
         <v>509</v>
@@ -33240,7 +33251,7 @@
       </c>
       <c r="N56" s="179"/>
       <c r="O56" s="356" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="P56" s="138"/>
       <c r="S56" s="9"/>
@@ -33264,7 +33275,7 @@
         <v>270</v>
       </c>
       <c r="C57" s="86" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D57" s="367" t="s">
         <v>182</v>
@@ -33276,7 +33287,7 @@
         <v>191</v>
       </c>
       <c r="G57" s="410" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="H57" s="411" t="s">
         <v>510</v>
@@ -33298,7 +33309,7 @@
       </c>
       <c r="N57" s="414"/>
       <c r="O57" s="368" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="P57" s="13"/>
       <c r="S57" s="9"/>
@@ -33322,7 +33333,7 @@
         <v>271</v>
       </c>
       <c r="C58" s="86" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="D58" s="367" t="s">
         <v>182</v>
@@ -33334,7 +33345,7 @@
         <v>191</v>
       </c>
       <c r="G58" s="368" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="H58" s="411" t="s">
         <v>509</v>
@@ -33356,7 +33367,7 @@
       </c>
       <c r="N58" s="414"/>
       <c r="O58" s="368" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="P58" s="13"/>
       <c r="S58" s="9"/>
@@ -33975,7 +33986,7 @@
         <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I10" t="s">
         <v>202</v>
@@ -33995,10 +34006,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="H11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K11" s="174" t="s">
         <v>289</v>
@@ -34037,7 +34048,7 @@
         <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K14" s="174" t="s">
         <v>292</v>
@@ -34048,7 +34059,7 @@
         <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K15" s="174" t="s">
         <v>293</v>
@@ -34201,7 +34212,7 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K33" s="174" t="s">
         <v>310</v>
@@ -34220,7 +34231,7 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H35" t="s">
         <v>106</v>
@@ -34231,7 +34242,7 @@
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36" s="69" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="K36" s="174" t="s">
         <v>313</v>
@@ -34283,7 +34294,7 @@
     </row>
     <row r="44" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C44" s="388" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="K44" s="174" t="s">
         <v>320</v>
@@ -34291,7 +34302,7 @@
     </row>
     <row r="45" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C45" s="388" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K45" s="174" t="s">
         <v>321</v>
@@ -34299,7 +34310,7 @@
     </row>
     <row r="46" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C46" s="388" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="K46" s="174" t="s">
         <v>322</v>
@@ -34317,7 +34328,7 @@
     </row>
     <row r="49" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C49" s="361" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="K49" s="174" t="s">
         <v>325</v>
@@ -34325,7 +34336,7 @@
     </row>
     <row r="50" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C50" s="361" t="s">
-        <v>720</v>
+        <v>701</v>
       </c>
       <c r="K50" s="174" t="s">
         <v>326</v>
@@ -34333,7 +34344,7 @@
     </row>
     <row r="51" spans="3:11" ht="17" x14ac:dyDescent="0.2">
       <c r="C51" s="361" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="K51" s="174" t="s">
         <v>327</v>
@@ -37085,12 +37096,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="F121:H121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="K87:L87"/>
@@ -37098,6 +37103,12 @@
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="F87:H87"/>
     <mergeCell ref="D101:J101"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="F121:H121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37448,16 +37459,16 @@
         <v>19</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -37526,16 +37537,16 @@
         <v>19</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -38700,7 +38711,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="234" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -38763,7 +38774,7 @@
         <v>215</v>
       </c>
       <c r="C7" s="207" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D7" s="156" t="s">
         <v>22</v>
@@ -38806,7 +38817,7 @@
         <v>179</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E8" s="158" t="s">
         <v>274</v>
@@ -38826,7 +38837,7 @@
       </c>
       <c r="J8" s="158"/>
       <c r="K8" s="148" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L8" s="129"/>
       <c r="M8" s="145"/>
@@ -38891,10 +38902,10 @@
         <v>219</v>
       </c>
       <c r="C10" s="159" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E10" s="158" t="s">
         <v>35</v>
@@ -38914,7 +38925,7 @@
       </c>
       <c r="J10" s="161"/>
       <c r="K10" s="148" t="s">
-        <v>492</v>
+        <v>827</v>
       </c>
       <c r="L10" s="131"/>
       <c r="M10" s="145"/>
@@ -38935,10 +38946,10 @@
         <v>220</v>
       </c>
       <c r="C11" s="159" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>558</v>
+        <v>836</v>
       </c>
       <c r="E11" s="158" t="s">
         <v>35</v>
@@ -38958,7 +38969,7 @@
       </c>
       <c r="J11" s="161"/>
       <c r="K11" s="148" t="s">
-        <v>498</v>
+        <v>834</v>
       </c>
       <c r="L11" s="131"/>
       <c r="M11" s="145"/>
@@ -38979,10 +38990,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>559</v>
+        <v>837</v>
       </c>
       <c r="E12" s="158" t="s">
         <v>35</v>
@@ -39002,7 +39013,7 @@
       </c>
       <c r="J12" s="161"/>
       <c r="K12" s="148" t="s">
-        <v>499</v>
+        <v>835</v>
       </c>
       <c r="L12" s="131"/>
       <c r="M12" s="145"/>
@@ -39026,7 +39037,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>566</v>
+        <v>838</v>
       </c>
       <c r="E13" s="158" t="s">
         <v>273</v>
@@ -39070,7 +39081,7 @@
         <v>183</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E14" s="158" t="s">
         <v>274</v>
@@ -39114,7 +39125,7 @@
         <v>180</v>
       </c>
       <c r="D15" s="160" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E15" s="158" t="s">
         <v>274</v>
@@ -39158,7 +39169,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="160" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E16" s="158" t="s">
         <v>273</v>
@@ -39202,7 +39213,7 @@
         <v>181</v>
       </c>
       <c r="D17" s="181" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E17" s="214" t="s">
         <v>273</v>
@@ -39246,7 +39257,7 @@
         <v>182</v>
       </c>
       <c r="D18" s="227" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E18" s="225" t="s">
         <v>274</v>
@@ -39361,7 +39372,7 @@
     </row>
     <row r="2" spans="1:20" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="R2" s="115"/>
       <c r="S2" s="15"/>
@@ -39379,7 +39390,7 @@
     </row>
     <row r="5" spans="1:20" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="120" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
@@ -39395,7 +39406,7 @@
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C7" s="321" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="D7" s="361"/>
       <c r="E7" s="211"/>
@@ -39409,7 +39420,7 @@
         <v>524</v>
       </c>
       <c r="D8" s="362" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E8" s="256" t="s">
         <v>210</v>
@@ -39603,7 +39614,7 @@
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="C21" s="321" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="D21" s="234"/>
       <c r="E21" s="211"/>
@@ -39616,7 +39627,7 @@
         <v>524</v>
       </c>
       <c r="D22" s="362" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E22" s="256" t="s">
         <v>210</v>
@@ -39757,7 +39768,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="18" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -39765,7 +39776,7 @@
         <v>524</v>
       </c>
       <c r="D36" s="362" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E36" s="256" t="s">
         <v>210</v>
@@ -39985,7 +39996,7 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>

--- a/UNICEF_framework_V09.xlsx
+++ b/UNICEF_framework_V09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/src/unicef-assessment-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D62530-FCBF-1940-B177-AAAD1F6BBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF13F5-E7C7-6B4F-8E78-9901A38D2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26580" firstSheet="8" activeTab="19" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26600" firstSheet="8" activeTab="24" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use the tool" sheetId="22" r:id="rId1"/>
@@ -5771,7 +5771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24369C9F-C4D0-9E4F-AC46-C588BDF2379D}" type="CELLRANGE">
+                    <a:fld id="{E070C3D3-4DAD-8F4C-97F3-0D0E4D227814}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5961,7 +5961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0050294-C867-BA49-BB8F-6D75083791D4}" type="CELLRANGE">
+                    <a:fld id="{9C1BBB58-273D-B448-B9A4-CA4025DE2D93}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25345,7 +25345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6935B2C9-A932-BA49-B5FD-D7DCE58D3BB9}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -30074,8 +30074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449AE6C8-153B-964A-9C41-8E3B30E165E1}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37096,6 +37096,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="F121:H121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="K87:L87"/>
@@ -37103,12 +37109,6 @@
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="F87:H87"/>
     <mergeCell ref="D101:J101"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="F121:H121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38692,7 +38692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B284026-E62C-4547-9120-8F9D4859FC5E}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="A1224" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/UNICEF_framework_V09.xlsx
+++ b/UNICEF_framework_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/src/unicef-assessment-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF13F5-E7C7-6B4F-8E78-9901A38D2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6279305-4BA7-7F40-A647-149807E4ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26600" firstSheet="8" activeTab="24" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26600" firstSheet="8" activeTab="24" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use the tool" sheetId="22" r:id="rId1"/>
@@ -5771,7 +5771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E070C3D3-4DAD-8F4C-97F3-0D0E4D227814}" type="CELLRANGE">
+                    <a:fld id="{707DA047-B014-7042-93F2-3D2315B8AA98}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5961,7 +5961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C1BBB58-273D-B448-B9A4-CA4025DE2D93}" type="CELLRANGE">
+                    <a:fld id="{B1B30E49-CF6D-5047-8B0C-1EF9507FE511}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -30075,7 +30075,7 @@
   <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37096,12 +37096,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="F121:H121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="K87:L87"/>
@@ -37109,6 +37103,12 @@
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="F87:H87"/>
     <mergeCell ref="D101:J101"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="F121:H121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UNICEF_framework_V09.xlsx
+++ b/UNICEF_framework_V09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/src/unicef-assessment-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6279305-4BA7-7F40-A647-149807E4ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B60DC6-7DC8-3247-953E-124C76CC9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26600" firstSheet="8" activeTab="24" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
+    <workbookView xWindow="-240" yWindow="500" windowWidth="51440" windowHeight="26340" firstSheet="3" activeTab="5" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use the tool" sheetId="22" r:id="rId1"/>
@@ -5771,7 +5771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{707DA047-B014-7042-93F2-3D2315B8AA98}" type="CELLRANGE">
+                    <a:fld id="{40EE1797-B548-8743-87E2-81537FCC6F0A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5961,7 +5961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1B30E49-CF6D-5047-8B0C-1EF9507FE511}" type="CELLRANGE">
+                    <a:fld id="{F56C4947-91EA-FA47-9503-1345E4413447}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20396,7 +20396,7 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30074,7 +30074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449AE6C8-153B-964A-9C41-8E3B30E165E1}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -39344,7 +39344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBC0ACD-97D9-014E-9C05-690EA4195003}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>

--- a/UNICEF_framework_V09.xlsx
+++ b/UNICEF_framework_V09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/src/unicef-assessment-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B60DC6-7DC8-3247-953E-124C76CC9268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89574457-708D-E848-8862-A8BE32A574D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="500" windowWidth="51440" windowHeight="26340" firstSheet="3" activeTab="5" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26600" firstSheet="8" activeTab="21" xr2:uid="{3FD09917-E6D0-0445-86B2-2BC0BB705E34}"/>
   </bookViews>
   <sheets>
     <sheet name="how to use the tool" sheetId="22" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="854">
   <si>
     <t>child labor</t>
   </si>
@@ -2710,23 +2710,13 @@
     <t>Does the business have a procedure to ensure all advertising and Marketing to children promotes non-discrimination, positive, healthy behaviour, and avoids behavioural advertising, and does it promote this standard with suppliers?</t>
   </si>
   <si>
-    <t>Does the business collaborate in programmes (community, industry, national, international) to promote children's rights, and positive, healthy behaviour, in Marketing and advertising, including voluntary Marketing codes and standards?</t>
-  </si>
-  <si>
     <t>Children lack the critical awareness to evaluate advertising and Marketing, and exposure to inappropriate communications can have a negative effect on their behavior and self-esteem. For example, children may be more susceptible to pressure to conform to group standards (e.g. consuming cigarettes and alcohol, or using skin whitening creams), or they may believe advertising that normalises violence, sexualised behavior or unrealistic body images, or they may be unaware of the harmful effects of eating food or drink that is high in in sugar, salt and fat content. Children may also not fully understand the implications of data privacy and the use of their personal data for behavioral advertising. This is why having a policy and procedure in place with standards to protect children's rights is essential for responsible Marketing or advertising to children.</t>
   </si>
   <si>
-    <t>Joining voluntary initiatives to establish Marketing codes and standards which include protections for children, and encourage positive and healthy behaviours, is an effective way to apply best practice, and to promote it across an industry. Given the role that Marketing and advertising plays in business competition, promoting common standards to which all companies adhere, is essential to protect children's rights. The International Code of Marketing of Breast-Milk Substitutes is an example of a code that promotes children's nutrition through the exclusive breastfeeding of babies in the first 6 months, and the stipulation of no Marketing or advertising of breast-milk substitutes, bottles and teats to the public, or through health facilities.</t>
-  </si>
-  <si>
     <t>https://sites.unicef.org/csr/css/industry-toolkit-children-digital-Marketing.pdf</t>
   </si>
   <si>
     <t>https://www.unicef.org.uk/babyfriendly/baby-friendly-resources/international-code-Marketing-breastmilk-substitutes-resources/guide-to-working-within-the-code/</t>
-  </si>
-  <si>
-    <t>If companies are producing Products for children, or Products that could harm children, or Products that are banned for children, they need to adopt responsible Marketing and advertising strategies to protect children.
-For example, companies should refrain from Marketing and advertising that encourages children to consume or use Products that are harmful to their health, or manipulates or negatively influences their behavior or self-esteem, or normalises violence, sexualised behavior or unrealistic body image ideals.</t>
   </si>
   <si>
     <t>When companies produce Products intended for children, such as toys, or food, or social media platforms, there is a risk that without adequate security by design and other forms of protection and regulation, the Products may be used inappropriately or may be inherently unsuitable for children. Company Products and services can also be misused to harm children, for example, the misuse of tourism facilities or the internet for child sexual exploitation. Product research and testing for such Products and services may also expose children to negative physical and mental impacts.</t>
@@ -2755,9 +2745,6 @@
     <t>The business should conduct a regular assessment of potential human rights risks associated with its business operations (considering its sites, facilities, Products and services, and labour supply chain), as well as its supply chain. This process may focus on higher priority areas of the business first (e.g. where the potential risks to people are greatest). The assessment should result in an action plan with measures to mitigate the risks identified, and ongoing monitoring of these measures. Where the assessment identifies actual impacts, then the business will need to initiate a remediation response.</t>
   </si>
   <si>
-    <t>Key performance indicators are a tool used to monitor the effectiveness of measures to prevent or mitigate impacts on children. Sometimes they are also tied to financial incentives for personnel responsible for these issues. For example, you could track the roll-out of training on children's rights across key functions in the business, or  details in programmes to manage specific issues, such as child labor, or Product safety.</t>
-  </si>
-  <si>
     <t>Does the business have a procedure to protect children's safety in Product design, labeling and packaging, and research and testing if relevant, and does it promote this standard with suppliers.</t>
   </si>
   <si>
@@ -2780,6 +2767,28 @@
   </si>
   <si>
     <t>Growing up online offers limitless opportunities for children's access to education, social communication and participation, but it also creates risks for children - for example, sexual exploitation and abuse, cyberbullying, privacy breaches as a result of data collection for Marketing purposes, access to age inappropriate content, and excessive screen time affecting a child's healthy development. Adopting a Safety by Design approach is a key method of protecting children because it requires business to consider child users of all ages, from Product design through to deployment.</t>
+  </si>
+  <si>
+    <t>Online Abuse and exploitation</t>
+  </si>
+  <si>
+    <t>Product Safety</t>
+  </si>
+  <si>
+    <t>Key performance indicators are a tool used to monitor the effectiveness of measures to prevent or mitigate impacts on children. Sometimes they are also tied to financial incentives for personnel responsible for these issues. For example, you could track the roll-out of training on children's rights across key functions in the business, or  details in programmes to manage specific issues, such as child labor, or Product Safety.</t>
+  </si>
+  <si>
+    <t>Marketing and Advertising</t>
+  </si>
+  <si>
+    <t>If companies are producing Products for children, or Products that could harm children, or Products that are banned for children, they need to adopt responsible Marketing and Advertising strategies to protect children.
+For example, companies should refrain from Marketing and Advertising that encourages children to consume or use Products that are harmful to their health, or manipulates or negatively influences their behavior or self-esteem, or normalises violence, sexualised behavior or unrealistic body image ideals.</t>
+  </si>
+  <si>
+    <t>Joining voluntary initiatives to establish Marketing codes and standards which include protections for children, and encourage positive and healthy behaviours, is an effective way to apply best practice, and to promote it across an industry. Given the role that Marketing and Advertising plays in business competition, promoting common standards to which all companies adhere, is essential to protect children's rights. The International Code of Marketing of Breast-Milk Substitutes is an example of a code that promotes children's nutrition through the exclusive breastfeeding of babies in the first 6 months, and the stipulation of no Marketing or advertising of breast-milk substitutes, bottles and teats to the public, or through health facilities.</t>
+  </si>
+  <si>
+    <t>Does the business collaborate in programmes (community, industry, national, international) to promote children's rights, and positive, healthy behaviour, in Marketing and Advertising, including voluntary Marketing codes and standards?</t>
   </si>
 </sst>
 </file>
@@ -5771,7 +5780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40EE1797-B548-8743-87E2-81537FCC6F0A}" type="CELLRANGE">
+                    <a:fld id="{50B0B9BD-EC2D-C94F-A01C-AC7F0317DDC8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5961,7 +5970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F56C4947-91EA-FA47-9503-1345E4413447}" type="CELLRANGE">
+                    <a:fld id="{447DA01C-5730-2543-AA77-4AB047AD7C09}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6147,13 +6156,13 @@
                     <c:v>Maternity protection</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Marketing and advertising</c:v>
+                    <c:v>Marketing and Advertising</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Product safety</c:v>
+                    <c:v>Product Safety</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Online abuse and exploitation</c:v>
+                    <c:v>Online Abuse and exploitation</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Resource use and damage to environment</c:v>
@@ -10699,13 +10708,13 @@
                   <c:v>Maternity protection</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marketing and advertising</c:v>
+                  <c:v>Marketing and Advertising</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Product safety</c:v>
+                  <c:v>Product Safety</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Online abuse and exploitation</c:v>
+                  <c:v>Online Abuse and exploitation</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Resource use and damage to environment</c:v>
@@ -10838,13 +10847,13 @@
                   <c:v>Maternity protection</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marketing and advertising</c:v>
+                  <c:v>Marketing and Advertising</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Product safety</c:v>
+                  <c:v>Product Safety</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Online abuse and exploitation</c:v>
+                  <c:v>Online Abuse and exploitation</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Resource use and damage to environment</c:v>
@@ -19662,7 +19671,7 @@
       </c>
       <c r="H20" s="163"/>
       <c r="I20" s="354" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J20" s="13"/>
     </row>
@@ -19690,7 +19699,7 @@
       </c>
       <c r="H21" s="163"/>
       <c r="I21" s="354" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="J21" s="13"/>
     </row>
@@ -19740,7 +19749,7 @@
       </c>
       <c r="H23" s="163"/>
       <c r="I23" s="354" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="J23" s="13"/>
     </row>
@@ -20090,7 +20099,7 @@
       </c>
       <c r="H36" s="163"/>
       <c r="I36" s="354" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="J36" s="13"/>
     </row>
@@ -21349,7 +21358,7 @@
       </c>
       <c r="H15" s="163"/>
       <c r="I15" s="148" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J15" s="385" t="s">
         <v>662</v>
@@ -21422,7 +21431,7 @@
         <v>191</v>
       </c>
       <c r="D18" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E18" s="170" t="s">
         <v>828</v>
@@ -21435,7 +21444,7 @@
       </c>
       <c r="H18" s="163"/>
       <c r="I18" s="148" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J18" s="383"/>
       <c r="K18" s="176"/>
@@ -21451,10 +21460,10 @@
         <v>191</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E19" s="170" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="F19" s="199" t="s">
         <v>27</v>
@@ -21464,7 +21473,7 @@
       </c>
       <c r="H19" s="163"/>
       <c r="I19" s="148" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="J19" s="383"/>
       <c r="K19" s="176"/>
@@ -21504,10 +21513,10 @@
         <v>191</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E21" s="170" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F21" s="199" t="s">
         <v>27</v>
@@ -21517,7 +21526,7 @@
       </c>
       <c r="H21" s="163"/>
       <c r="I21" s="148" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="J21" s="383"/>
       <c r="K21" s="176"/>
@@ -21533,10 +21542,10 @@
         <v>191</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E22" s="160" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="F22" s="199" t="s">
         <v>27</v>
@@ -21546,7 +21555,7 @@
       </c>
       <c r="H22" s="163"/>
       <c r="I22" s="148" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="J22" s="383"/>
       <c r="K22" s="176"/>
@@ -21586,10 +21595,10 @@
         <v>191</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E24" s="164" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="F24" s="199" t="s">
         <v>27</v>
@@ -21599,7 +21608,7 @@
       </c>
       <c r="H24" s="163"/>
       <c r="I24" s="148" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="J24" s="383" t="s">
         <v>666</v>
@@ -21617,10 +21626,10 @@
         <v>191</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F25" s="199" t="s">
         <v>27</v>
@@ -22725,7 +22734,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22887,7 +22896,7 @@
     </row>
     <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="317" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C11" s="289">
         <v>3</v>
@@ -22910,7 +22919,7 @@
     </row>
     <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="317" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C12" s="289">
         <v>1</v>
@@ -22933,7 +22942,7 @@
     </row>
     <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="317" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C13" s="289">
         <v>0</v>
@@ -23486,7 +23495,7 @@
     </row>
     <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="317" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C11" s="289">
         <v>3</v>
@@ -23509,7 +23518,7 @@
     </row>
     <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="317" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C12" s="289">
         <v>1</v>
@@ -23532,7 +23541,7 @@
     </row>
     <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="317" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C13" s="289">
         <v>0</v>
@@ -24011,7 +24020,7 @@
     </row>
     <row r="44" spans="2:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="317" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C44" s="289">
         <v>3</v>
@@ -24029,7 +24038,7 @@
     </row>
     <row r="45" spans="2:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="317" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C45" s="289">
         <v>1</v>
@@ -24047,7 +24056,7 @@
     </row>
     <row r="46" spans="2:17" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="317" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C46" s="289">
         <v>0</v>
@@ -24421,7 +24430,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -24432,7 +24441,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -24443,7 +24452,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -24690,7 +24699,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="191" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C10" s="175"/>
       <c r="D10" s="175"/>
@@ -24700,7 +24709,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="191" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C11" s="175"/>
       <c r="D11" s="175"/>
@@ -24710,7 +24719,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="191" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C12" s="175"/>
       <c r="D12" s="175"/>
@@ -24845,7 +24854,7 @@
     </row>
     <row r="24" spans="2:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="191" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C24" s="175"/>
       <c r="D24" s="175"/>
@@ -24855,7 +24864,7 @@
     </row>
     <row r="25" spans="2:7" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="191" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C25" s="175"/>
       <c r="D25" s="175"/>
@@ -24865,7 +24874,7 @@
     </row>
     <row r="26" spans="2:7" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="191" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C26" s="175"/>
       <c r="D26" s="175"/>
@@ -25008,7 +25017,7 @@
     </row>
     <row r="39" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="191" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C39" s="175"/>
       <c r="D39" s="175"/>
@@ -25018,7 +25027,7 @@
     </row>
     <row r="40" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="191" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C40" s="175"/>
       <c r="D40" s="175"/>
@@ -25028,7 +25037,7 @@
     </row>
     <row r="41" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="191" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C41" s="175"/>
       <c r="D41" s="175"/>
@@ -25266,19 +25275,19 @@
     </row>
     <row r="67" spans="2:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="191" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="C67" s="370"/>
     </row>
     <row r="68" spans="2:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="191" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="C68" s="370"/>
     </row>
     <row r="69" spans="2:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="191" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="C69" s="370"/>
     </row>
@@ -25345,7 +25354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6935B2C9-A932-BA49-B5FD-D7DCE58D3BB9}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -25535,7 +25544,7 @@
     </row>
     <row r="12" spans="1:18" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D12" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E12" s="240">
         <v>3</v>
@@ -25560,7 +25569,7 @@
     </row>
     <row r="13" spans="1:18" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D13" s="238" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E13" s="240">
         <v>3</v>
@@ -25584,7 +25593,7 @@
     </row>
     <row r="14" spans="1:18" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D14" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E14" s="240">
         <v>4</v>
@@ -25841,7 +25850,7 @@
     </row>
     <row r="26" spans="4:20" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E26" s="240">
         <v>1</v>
@@ -25865,7 +25874,7 @@
     </row>
     <row r="27" spans="4:20" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="238" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E27" s="240">
         <v>1</v>
@@ -25889,7 +25898,7 @@
     </row>
     <row r="28" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="D28" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E28" s="240">
         <v>4</v>
@@ -26169,7 +26178,7 @@
     </row>
     <row r="40" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="D40" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E40" s="240">
         <v>2</v>
@@ -26199,7 +26208,7 @@
     </row>
     <row r="41" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D41" s="237" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E41" s="240">
         <v>2</v>
@@ -26229,7 +26238,7 @@
     </row>
     <row r="42" spans="4:20" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E42" s="240">
         <v>4</v>
@@ -26610,7 +26619,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26902,7 +26911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61B83B-A191-0C40-9766-46618133E255}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -27449,7 +27458,7 @@
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="119" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="B18" t="s">
         <v>776</v>
@@ -27464,7 +27473,7 @@
         <v>783</v>
       </c>
       <c r="C19" s="419" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -27473,12 +27482,12 @@
         <v>786</v>
       </c>
       <c r="C20" s="419" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="119" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>773</v>
@@ -27489,7 +27498,7 @@
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="119" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="B22" s="328" t="s">
         <v>801</v>
@@ -30074,8 +30083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449AE6C8-153B-964A-9C41-8E3B30E165E1}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30391,13 +30400,13 @@
       </c>
       <c r="D7" s="158"/>
       <c r="E7" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="F7" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G7" s="159" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H7" s="160" t="s">
         <v>517</v>
@@ -30420,7 +30429,7 @@
       </c>
       <c r="N7" s="161"/>
       <c r="O7" s="354" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="P7" s="131"/>
       <c r="Q7" s="145"/>
@@ -30450,13 +30459,13 @@
       </c>
       <c r="D8" s="158"/>
       <c r="E8" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="F8" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="160" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H8" s="160" t="s">
         <v>517</v>
@@ -30479,7 +30488,7 @@
       </c>
       <c r="N8" s="161"/>
       <c r="O8" s="354" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="P8" s="131"/>
       <c r="Q8" s="145"/>
@@ -30509,13 +30518,13 @@
       </c>
       <c r="D9" s="158"/>
       <c r="E9" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="F9" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G9" s="160" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H9" s="160" t="s">
         <v>517</v>
@@ -31321,7 +31330,7 @@
       </c>
       <c r="N23" s="163"/>
       <c r="O23" s="354" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="P23" s="13"/>
       <c r="S23" s="9"/>
@@ -31379,7 +31388,7 @@
       </c>
       <c r="N24" s="163"/>
       <c r="O24" s="354" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="P24" s="13"/>
       <c r="S24" s="9"/>
@@ -31437,7 +31446,7 @@
       </c>
       <c r="N25" s="163"/>
       <c r="O25" s="354" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="P25" s="13"/>
       <c r="S25" s="9"/>
@@ -31959,7 +31968,7 @@
       </c>
       <c r="N34" s="163"/>
       <c r="O34" s="354" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="P34" s="13"/>
       <c r="S34" s="9"/>
@@ -32367,7 +32376,7 @@
       </c>
       <c r="N41" s="163"/>
       <c r="O41" s="354" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="P41" s="396" t="s">
         <v>662</v>
@@ -32456,10 +32465,10 @@
         <v>715</v>
       </c>
       <c r="D43" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E43" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="F43" s="167" t="s">
         <v>191</v>
@@ -32487,7 +32496,7 @@
       </c>
       <c r="N43" s="163"/>
       <c r="O43" s="354" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P43" s="13"/>
       <c r="S43" s="9"/>
@@ -32514,16 +32523,16 @@
         <v>715</v>
       </c>
       <c r="D44" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="E44" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="F44" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G44" s="170" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="H44" s="170" t="s">
         <v>509</v>
@@ -32545,7 +32554,7 @@
       </c>
       <c r="N44" s="163"/>
       <c r="O44" s="354" t="s">
-        <v>831</v>
+        <v>852</v>
       </c>
       <c r="P44" s="13"/>
       <c r="S44" s="9"/>
@@ -32572,16 +32581,16 @@
         <v>715</v>
       </c>
       <c r="D45" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E45" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="F45" s="167" t="s">
         <v>191</v>
       </c>
       <c r="G45" s="170" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H45" s="170" t="s">
         <v>510</v>
@@ -32603,7 +32612,7 @@
       </c>
       <c r="N45" s="163"/>
       <c r="O45" s="354" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="P45" s="13"/>
       <c r="S45" s="9"/>
@@ -32630,16 +32639,16 @@
         <v>715</v>
       </c>
       <c r="D46" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="E46" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="F46" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G46" s="160" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H46" s="170" t="s">
         <v>509</v>
@@ -32661,7 +32670,7 @@
       </c>
       <c r="N46" s="163"/>
       <c r="O46" s="354" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="P46" s="13"/>
       <c r="S46" s="9"/>
@@ -32688,16 +32697,16 @@
         <v>715</v>
       </c>
       <c r="D47" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E47" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="F47" s="167" t="s">
         <v>191</v>
       </c>
       <c r="G47" s="164" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H47" s="170" t="s">
         <v>510</v>
@@ -32719,7 +32728,7 @@
       </c>
       <c r="N47" s="163"/>
       <c r="O47" s="354" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="P47" s="392" t="s">
         <v>666</v>
@@ -32748,16 +32757,16 @@
         <v>715</v>
       </c>
       <c r="D48" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="E48" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="F48" s="159" t="s">
         <v>191</v>
       </c>
       <c r="G48" s="160" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H48" s="170" t="s">
         <v>509</v>
@@ -34003,7 +34012,7 @@
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11" s="119" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="G11" t="s">
         <v>715</v>
@@ -34023,7 +34032,7 @@
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C12" s="119" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="H12" t="s">
         <v>196</v>
@@ -34034,7 +34043,7 @@
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C13" s="119" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="H13" t="s">
         <v>171</v>
@@ -37096,6 +37105,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="F121:H121"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="M121:O121"/>
     <mergeCell ref="K87:L87"/>
@@ -37103,12 +37118,6 @@
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="F87:H87"/>
     <mergeCell ref="D101:J101"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="F121:H121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38946,10 +38955,10 @@
         <v>220</v>
       </c>
       <c r="C11" s="159" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E11" s="158" t="s">
         <v>35</v>
@@ -38969,7 +38978,7 @@
       </c>
       <c r="J11" s="161"/>
       <c r="K11" s="148" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="L11" s="131"/>
       <c r="M11" s="145"/>
@@ -38990,10 +38999,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E12" s="158" t="s">
         <v>35</v>
@@ -39013,7 +39022,7 @@
       </c>
       <c r="J12" s="161"/>
       <c r="K12" s="148" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="L12" s="131"/>
       <c r="M12" s="145"/>
@@ -39034,10 +39043,10 @@
         <v>222</v>
       </c>
       <c r="C13" s="159" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E13" s="158" t="s">
         <v>273</v>
@@ -39344,7 +39353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBC0ACD-97D9-014E-9C05-690EA4195003}">
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -39481,7 +39490,7 @@
       <c r="A12" s="346"/>
       <c r="B12" s="120"/>
       <c r="C12" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="D12" s="363">
         <v>3</v>
@@ -39497,7 +39506,7 @@
       <c r="A13" s="346"/>
       <c r="B13" s="255"/>
       <c r="C13" s="238" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="D13" s="363">
         <v>3</v>
@@ -39513,7 +39522,7 @@
       <c r="A14" s="346"/>
       <c r="B14" s="255"/>
       <c r="C14" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="D14" s="363">
         <v>4</v>
@@ -39680,7 +39689,7 @@
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="D26" s="363">
         <v>1</v>
@@ -39691,7 +39700,7 @@
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C27" s="238" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="D27" s="363">
         <v>1</v>
@@ -39702,7 +39711,7 @@
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C28" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="D28" s="363">
         <v>4</v>
@@ -39817,7 +39826,7 @@
     </row>
     <row r="40" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C40" s="238" t="s">
-        <v>3</v>
+        <v>850</v>
       </c>
       <c r="D40" s="363">
         <v>2</v>
@@ -39828,7 +39837,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="237" t="s">
-        <v>1</v>
+        <v>848</v>
       </c>
       <c r="D41" s="363">
         <v>2</v>
@@ -39839,7 +39848,7 @@
     </row>
     <row r="42" spans="3:5" ht="17" x14ac:dyDescent="0.2">
       <c r="C42" s="238" t="s">
-        <v>2</v>
+        <v>847</v>
       </c>
       <c r="D42" s="363">
         <v>4</v>
